--- a/P3TOME_MAIN_TABLE.xlsx
+++ b/P3TOME_MAIN_TABLE.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajf/Documents/GitHub/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065535C5-BC26-E944-9D8A-385D33429FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94157A2-3CBB-F641-ABD3-9FB390F66822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4140" yWindow="-19220" windowWidth="30860" windowHeight="17040" xr2:uid="{BF91EB68-8200-D04C-ACEA-7728D8B81486}"/>
   </bookViews>
   <sheets>
-    <sheet name="P3ome" sheetId="1" r:id="rId1"/>
-    <sheet name="P3ome Terms" sheetId="2" r:id="rId2"/>
+    <sheet name="P3Tome" sheetId="1" r:id="rId1"/>
+    <sheet name="P3Tome Terms" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
   <si>
     <t>Final Pharmacy Product Type</t>
   </si>
@@ -110,6 +110,222 @@
   </si>
   <si>
     <t>UNIQUE PRODUCT TYPE-PROCESS TYPE INSTANCES</t>
+  </si>
+  <si>
+    <t>TECHNOLOGIES USED DURING PROCESS</t>
+  </si>
+  <si>
+    <t>Technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazardous Pharmacy-Provided Packaging </t>
+  </si>
+  <si>
+    <t>Pharmacy Process Stage</t>
+  </si>
+  <si>
+    <t>Preparation</t>
+  </si>
+  <si>
+    <t>Enteral</t>
+  </si>
+  <si>
+    <t>Parenteral</t>
+  </si>
+  <si>
+    <t>Hazardous</t>
+  </si>
+  <si>
+    <t>Patient-specific</t>
+  </si>
+  <si>
+    <t>Syringe</t>
+  </si>
+  <si>
+    <t>IV bag</t>
+  </si>
+  <si>
+    <t>CSTD used</t>
+  </si>
+  <si>
+    <t>Closed System Drug-Transfer Device</t>
+  </si>
+  <si>
+    <t>Add and fill IV line</t>
+  </si>
+  <si>
+    <t>TOUCHES BY PURPOSE</t>
+  </si>
+  <si>
+    <t>Remove from Storage</t>
+  </si>
+  <si>
+    <t>Scan before Sterile Compouding</t>
+  </si>
+  <si>
+    <t>Connect CTSD</t>
+  </si>
+  <si>
+    <t>Reconstitute</t>
+  </si>
+  <si>
+    <t>Remove Drug Solution from Vial into Syringe</t>
+  </si>
+  <si>
+    <t>Inject Drug Solution into IV Bag</t>
+  </si>
+  <si>
+    <t>Weigh Compounded Drug Product</t>
+  </si>
+  <si>
+    <t>Reconstitution Required</t>
+  </si>
+  <si>
+    <t>Affix Label and Place in Hazardous Delivery Bag</t>
+  </si>
+  <si>
+    <t>Filled and Labeled IV Bag in Hazard Delivery Bag</t>
+  </si>
+  <si>
+    <t>Filled and Labeled Injectable Syringe in Hazard Delivery Bag</t>
+  </si>
+  <si>
+    <t>Attached IV line required</t>
+  </si>
+  <si>
+    <t>Product Identifer</t>
+  </si>
+  <si>
+    <t>e84153ae-9c2a-4f98-83f7-e5a3c8d15403</t>
+  </si>
+  <si>
+    <t>cc496dc0-b4e6-46a8-869d-50fce3c5d694</t>
+  </si>
+  <si>
+    <t>85663ebc-92d5-40bf-bbb1-4ab5ac7aab62</t>
+  </si>
+  <si>
+    <t>0d303436-fb61-458d-9c3b-3e18c439cb3e</t>
+  </si>
+  <si>
+    <t>b4c2fa64-23dd-434b-99b8-76142d2098ad</t>
+  </si>
+  <si>
+    <t>89cf804e-740a-440c-85d2-034173ecacef</t>
+  </si>
+  <si>
+    <t>dacc1a93-0c4b-451a-9e5a-bec7726766cc</t>
+  </si>
+  <si>
+    <t>d9bbc29f-f7cc-4aa1-a02b-33c0a79e5a8e</t>
+  </si>
+  <si>
+    <t>cf9a7f7d-39fd-4d8f-b0d8-954d361d3119</t>
+  </si>
+  <si>
+    <t>88b9ccb7-052f-4c7b-9602-e531231076e0</t>
+  </si>
+  <si>
+    <t>f33a045a-13b4-4238-82c9-622f86b5ac04</t>
+  </si>
+  <si>
+    <t>fa2d7dc1-858a-4d63-a449-ed83fcc0c494</t>
+  </si>
+  <si>
+    <t>127ff706-5237-43d3-a2e1-b00bf54281d3</t>
+  </si>
+  <si>
+    <t>28d9bd75-c0e4-46b1-9288-891c585067de</t>
+  </si>
+  <si>
+    <t>284ef53d-2741-4e69-9752-6c7055c90a9f</t>
+  </si>
+  <si>
+    <t>7e5d592f-3656-4c99-a95c-586440c4b5e1</t>
+  </si>
+  <si>
+    <t>8b74b937-87f4-418c-a75a-6d7ac1741d46</t>
+  </si>
+  <si>
+    <t>3e4389ec-a72a-42e7-827e-667c9053e548</t>
+  </si>
+  <si>
+    <t>826a48bd-cabb-466c-8585-44606450cb32</t>
+  </si>
+  <si>
+    <t>b00b0f23-cfdf-4d8e-8db5-b0a6a262c981</t>
+  </si>
+  <si>
+    <t>4ff655ee-8256-4267-b7d5-8d575884bf55</t>
+  </si>
+  <si>
+    <t>c1745cd6-aa9f-4cc3-9303-d120c77d577f</t>
+  </si>
+  <si>
+    <t>ae83e1ce-ce35-4382-9ea2-28f41c83d5f9</t>
+  </si>
+  <si>
+    <t>11685f29-2ccb-46ee-82b5-01978d26d02d</t>
+  </si>
+  <si>
+    <t>65d5f241-b153-472b-8c27-efa7a85c875f</t>
+  </si>
+  <si>
+    <t>1869ada3-8eca-4aa1-9ed3-c4935bfa663b</t>
+  </si>
+  <si>
+    <t>39875e84-7485-4f84-9713-62823abdda1d</t>
+  </si>
+  <si>
+    <t>9d6ecc87-fa1a-48d6-ae08-c6c418edc8c9</t>
+  </si>
+  <si>
+    <t>6ea86ed6-5660-46e1-8774-75535120b57a</t>
+  </si>
+  <si>
+    <t>5e6cbb43-68f0-4192-a7e5-dc1e04a08413</t>
+  </si>
+  <si>
+    <t>FLISHDB</t>
+  </si>
+  <si>
+    <t>FLIVPBHDB</t>
+  </si>
+  <si>
+    <t>Controlled Substance Only</t>
+  </si>
+  <si>
+    <t>Non-controlled Substance Only</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Pharmacy Process Stage Modifier</t>
+  </si>
+  <si>
+    <t>Cart-fill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move Drug Product Into Patient-specific ADC Bin </t>
+  </si>
+  <si>
+    <t>Unit Dose Packaging</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Prepackaged Enteral Product?</t>
+  </si>
+  <si>
+    <t>Non-hazardous Manufacturer Provided Packaging</t>
+  </si>
+  <si>
+    <t>Pharmacy-packaged</t>
+  </si>
+  <si>
+    <t>Manufacturer-packaged</t>
   </si>
   <si>
     <r>
@@ -119,7 +335,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">Pharmacy Product-Process Ome (P3ome) </t>
+      <t xml:space="preserve">Pharmacy Product-Process-Technology Ome (P3Tome) </t>
     </r>
     <r>
       <rPr>
@@ -150,7 +366,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">or "ome" for every final pharmacy product type arising from every different health-system pharmacy process. Therefore, the instances collected are unique product type-process type instances in pharmacy (UPT2Is). New types of products </t>
+      <t xml:space="preserve">or "ome" for every final pharmacy product type arising from every different health-system pharmacy process enabled by various technologies. The instances collected row-by-row are unique product type-process type-technology instances in pharmacy. New types of products </t>
     </r>
     <r>
       <rPr>
@@ -170,231 +386,43 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> new types of processes will cause the P3ome to grow.</t>
+      <t xml:space="preserve"> new types of processes </t>
     </r>
-  </si>
-  <si>
-    <t>TECHNOLOGIES USED DURING PROCESS</t>
-  </si>
-  <si>
-    <t>Technologies</t>
-  </si>
-  <si>
-    <t>P3ome Identifer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hazardous Pharmacy-Provided Packaging </t>
-  </si>
-  <si>
-    <t>Pharmacy Process Stage</t>
-  </si>
-  <si>
-    <t>Preparation</t>
-  </si>
-  <si>
-    <t>Enteral</t>
-  </si>
-  <si>
-    <t>Parenteral</t>
-  </si>
-  <si>
-    <t>Hazardous</t>
-  </si>
-  <si>
-    <t>Patient-specific</t>
-  </si>
-  <si>
-    <t>Syringe</t>
-  </si>
-  <si>
-    <t>IV bag</t>
-  </si>
-  <si>
-    <t>CSTD used</t>
-  </si>
-  <si>
-    <t>Closed System Drug-Transfer Device</t>
-  </si>
-  <si>
-    <t>Add and fill IV line</t>
-  </si>
-  <si>
-    <t>TOUCHES BY PURPOSE</t>
-  </si>
-  <si>
-    <t>Remove from Storage</t>
-  </si>
-  <si>
-    <t>Scan before Sterile Compouding</t>
-  </si>
-  <si>
-    <t>Connect CTSD</t>
-  </si>
-  <si>
-    <t>Reconstitute</t>
-  </si>
-  <si>
-    <t>Remove Drug Solution from Vial into Syringe</t>
-  </si>
-  <si>
-    <t>Inject Drug Solution into IV Bag</t>
-  </si>
-  <si>
-    <t>Weigh Compounded Drug Product</t>
-  </si>
-  <si>
-    <t>Reconstitution Required</t>
-  </si>
-  <si>
-    <t>Affix Label and Place in Hazardous Delivery Bag</t>
-  </si>
-  <si>
-    <t>Filled and Labeled IV Bag in Hazard Delivery Bag</t>
-  </si>
-  <si>
-    <t>Filled and Labeled Injectable Syringe in Hazard Delivery Bag</t>
-  </si>
-  <si>
-    <t>Attached IV line required</t>
-  </si>
-  <si>
-    <t>Product Identifer</t>
-  </si>
-  <si>
-    <t>e84153ae-9c2a-4f98-83f7-e5a3c8d15403</t>
-  </si>
-  <si>
-    <t>cc496dc0-b4e6-46a8-869d-50fce3c5d694</t>
-  </si>
-  <si>
-    <t>85663ebc-92d5-40bf-bbb1-4ab5ac7aab62</t>
-  </si>
-  <si>
-    <t>0d303436-fb61-458d-9c3b-3e18c439cb3e</t>
-  </si>
-  <si>
-    <t>b4c2fa64-23dd-434b-99b8-76142d2098ad</t>
-  </si>
-  <si>
-    <t>89cf804e-740a-440c-85d2-034173ecacef</t>
-  </si>
-  <si>
-    <t>dacc1a93-0c4b-451a-9e5a-bec7726766cc</t>
-  </si>
-  <si>
-    <t>d9bbc29f-f7cc-4aa1-a02b-33c0a79e5a8e</t>
-  </si>
-  <si>
-    <t>cf9a7f7d-39fd-4d8f-b0d8-954d361d3119</t>
-  </si>
-  <si>
-    <t>88b9ccb7-052f-4c7b-9602-e531231076e0</t>
-  </si>
-  <si>
-    <t>f33a045a-13b4-4238-82c9-622f86b5ac04</t>
-  </si>
-  <si>
-    <t>fa2d7dc1-858a-4d63-a449-ed83fcc0c494</t>
-  </si>
-  <si>
-    <t>127ff706-5237-43d3-a2e1-b00bf54281d3</t>
-  </si>
-  <si>
-    <t>28d9bd75-c0e4-46b1-9288-891c585067de</t>
-  </si>
-  <si>
-    <t>284ef53d-2741-4e69-9752-6c7055c90a9f</t>
-  </si>
-  <si>
-    <t>7e5d592f-3656-4c99-a95c-586440c4b5e1</t>
-  </si>
-  <si>
-    <t>8b74b937-87f4-418c-a75a-6d7ac1741d46</t>
-  </si>
-  <si>
-    <t>3e4389ec-a72a-42e7-827e-667c9053e548</t>
-  </si>
-  <si>
-    <t>826a48bd-cabb-466c-8585-44606450cb32</t>
-  </si>
-  <si>
-    <t>b00b0f23-cfdf-4d8e-8db5-b0a6a262c981</t>
-  </si>
-  <si>
-    <t>4ff655ee-8256-4267-b7d5-8d575884bf55</t>
-  </si>
-  <si>
-    <t>c1745cd6-aa9f-4cc3-9303-d120c77d577f</t>
-  </si>
-  <si>
-    <t>ae83e1ce-ce35-4382-9ea2-28f41c83d5f9</t>
-  </si>
-  <si>
-    <t>11685f29-2ccb-46ee-82b5-01978d26d02d</t>
-  </si>
-  <si>
-    <t>65d5f241-b153-472b-8c27-efa7a85c875f</t>
-  </si>
-  <si>
-    <t>1869ada3-8eca-4aa1-9ed3-c4935bfa663b</t>
-  </si>
-  <si>
-    <t>39875e84-7485-4f84-9713-62823abdda1d</t>
-  </si>
-  <si>
-    <t>9d6ecc87-fa1a-48d6-ae08-c6c418edc8c9</t>
-  </si>
-  <si>
-    <t>6ea86ed6-5660-46e1-8774-75535120b57a</t>
-  </si>
-  <si>
-    <t>5e6cbb43-68f0-4192-a7e5-dc1e04a08413</t>
-  </si>
-  <si>
-    <t>FLISHDB</t>
-  </si>
-  <si>
-    <t>FLIVPBHDB</t>
-  </si>
-  <si>
-    <t>P3OME Unique Row Identifier</t>
-  </si>
-  <si>
-    <t>Non-hazardous manufacturer provided packaging</t>
-  </si>
-  <si>
-    <t>Controlled Substance Only</t>
-  </si>
-  <si>
-    <t>Non-controlled Substance Only</t>
-  </si>
-  <si>
-    <t>Delivery</t>
-  </si>
-  <si>
-    <t>Pharmacy Process Stage Modifier</t>
-  </si>
-  <si>
-    <t>Cart-fill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move Drug Product Into Patient-specific ADC Bin </t>
-  </si>
-  <si>
-    <t>Unit Dose Packaging</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Prepackaged Enteral Product?</t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> variation in technologies used to complete the processes will cause the P3Tome to grow.</t>
+    </r>
+  </si>
+  <si>
+    <t>Final Pharmacy Product</t>
+  </si>
+  <si>
+    <t>P3Tome Identifer</t>
+  </si>
+  <si>
+    <t>P3Tome Unique Row Identifier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -506,6 +534,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="10">
@@ -733,36 +767,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,6 +778,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1093,7 +1127,7 @@
   <dimension ref="A1:AT33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1152,9 @@
     <col min="19" max="19" width="13" style="1" customWidth="1"/>
     <col min="20" max="20" width="26.5" style="1" customWidth="1"/>
     <col min="21" max="21" width="28.6640625" style="1" customWidth="1"/>
-    <col min="22" max="24" width="10.83203125" style="1"/>
+    <col min="22" max="22" width="28" style="1" customWidth="1"/>
+    <col min="23" max="23" width="28.33203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="24.83203125" style="1" customWidth="1"/>
     <col min="25" max="25" width="23.1640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="35.5" style="1" customWidth="1"/>
     <col min="27" max="27" width="19.5" style="1" customWidth="1"/>
@@ -1133,17 +1169,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="A1" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
@@ -1154,7 +1190,7 @@
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
       <c r="S1" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T1" s="12"/>
       <c r="U1" s="12"/>
@@ -1185,71 +1221,71 @@
       <c r="AT1" s="12"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="31" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="32" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="33" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>6</v>
@@ -1261,10 +1297,10 @@
         <v>7</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>1</v>
@@ -1273,73 +1309,77 @@
         <v>8</v>
       </c>
       <c r="J3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="22" t="s">
+      <c r="N3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="O3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="P3" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="R3" s="22" t="s">
+      <c r="T3" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="W3" s="22" t="s">
+        <v>96</v>
+      </c>
       <c r="X3" s="22"/>
       <c r="Y3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="Z3" s="22" t="s">
+      <c r="AB3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AA3" s="22" t="s">
+      <c r="AC3" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AB3" s="23" t="s">
+      <c r="AD3" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AC3" s="23" t="s">
+      <c r="AE3" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="AD3" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE3" s="23" t="s">
+      <c r="AF3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="AF3" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG3" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH3" s="37" t="s">
-        <v>94</v>
+      <c r="AH3" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="AI3" s="23"/>
       <c r="AJ3" s="23"/>
@@ -1356,22 +1396,22 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="H4" s="18">
         <f>SUM(Y4:AH4)</f>
@@ -1396,10 +1436,10 @@
       <c r="O4" s="11">
         <v>0</v>
       </c>
-      <c r="P4" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="34">
+      <c r="P4" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="24">
         <v>0</v>
       </c>
       <c r="R4" s="11">
@@ -1414,8 +1454,12 @@
       <c r="U4" s="11">
         <v>0</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
+      <c r="V4" s="11">
+        <v>1</v>
+      </c>
+      <c r="W4" s="11">
+        <v>0</v>
+      </c>
       <c r="X4" s="11"/>
       <c r="Y4" s="11">
         <v>1</v>
@@ -1460,22 +1504,22 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="9">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="H5" s="14">
         <f>SUM(Y5:AH5)</f>
@@ -1500,10 +1544,10 @@
       <c r="O5" s="11">
         <v>1</v>
       </c>
-      <c r="P5" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="34">
+      <c r="P5" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="24">
         <v>0</v>
       </c>
       <c r="R5" s="11">
@@ -1518,8 +1562,12 @@
       <c r="U5" s="11">
         <v>0</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
+      <c r="V5" s="11">
+        <v>1</v>
+      </c>
+      <c r="W5" s="11">
+        <v>0</v>
+      </c>
       <c r="X5" s="11"/>
       <c r="Y5" s="11">
         <v>1</v>
@@ -1564,22 +1612,22 @@
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" s="9">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="14">
         <f>SUM(Y6:AH6)</f>
@@ -1604,10 +1652,10 @@
       <c r="O6" s="11">
         <v>0</v>
       </c>
-      <c r="P6" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="34">
+      <c r="P6" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="24">
         <v>0</v>
       </c>
       <c r="R6" s="11">
@@ -1622,8 +1670,12 @@
       <c r="U6" s="11">
         <v>0</v>
       </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
+      <c r="V6" s="11">
+        <v>1</v>
+      </c>
+      <c r="W6" s="11">
+        <v>0</v>
+      </c>
       <c r="X6" s="11"/>
       <c r="Y6" s="11">
         <v>1</v>
@@ -1668,22 +1720,22 @@
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="H7" s="14">
         <f>SUM(Y7:AH7)</f>
@@ -1708,10 +1760,10 @@
       <c r="O7" s="11">
         <v>1</v>
       </c>
-      <c r="P7" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="34">
+      <c r="P7" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="24">
         <v>0</v>
       </c>
       <c r="R7" s="11">
@@ -1726,8 +1778,12 @@
       <c r="U7" s="11">
         <v>0</v>
       </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
+      <c r="V7" s="11">
+        <v>1</v>
+      </c>
+      <c r="W7" s="11">
+        <v>0</v>
+      </c>
       <c r="X7" s="11"/>
       <c r="Y7" s="11">
         <v>1</v>
@@ -1772,22 +1828,22 @@
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="9">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="H8" s="14">
         <f t="shared" ref="H8:H12" si="0">SUM(Y8:AH8)</f>
@@ -1812,10 +1868,10 @@
       <c r="O8" s="11">
         <v>0</v>
       </c>
-      <c r="P8" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="34">
+      <c r="P8" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="24">
         <v>0</v>
       </c>
       <c r="R8" s="11">
@@ -1830,8 +1886,12 @@
       <c r="U8" s="11">
         <v>0</v>
       </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
+      <c r="V8" s="11">
+        <v>1</v>
+      </c>
+      <c r="W8" s="11">
+        <v>0</v>
+      </c>
       <c r="X8" s="11"/>
       <c r="Y8" s="11">
         <v>1</v>
@@ -1876,22 +1936,22 @@
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="9">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="0"/>
@@ -1916,10 +1976,10 @@
       <c r="O9" s="11">
         <v>1</v>
       </c>
-      <c r="P9" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="34">
+      <c r="P9" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="24">
         <v>0</v>
       </c>
       <c r="R9" s="11">
@@ -1934,8 +1994,12 @@
       <c r="U9" s="11">
         <v>0</v>
       </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
+      <c r="V9" s="11">
+        <v>1</v>
+      </c>
+      <c r="W9" s="11">
+        <v>0</v>
+      </c>
       <c r="X9" s="11"/>
       <c r="Y9" s="11">
         <v>1</v>
@@ -1980,22 +2044,22 @@
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="9">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="0"/>
@@ -2020,10 +2084,10 @@
       <c r="O10" s="11">
         <v>0</v>
       </c>
-      <c r="P10" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="34">
+      <c r="P10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="24">
         <v>0</v>
       </c>
       <c r="R10" s="11">
@@ -2038,8 +2102,12 @@
       <c r="U10" s="11">
         <v>1</v>
       </c>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
+      <c r="V10" s="11">
+        <v>1</v>
+      </c>
+      <c r="W10" s="11">
+        <v>0</v>
+      </c>
       <c r="X10" s="11"/>
       <c r="Y10" s="11">
         <v>1</v>
@@ -2084,22 +2152,22 @@
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="9">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="0"/>
@@ -2124,10 +2192,10 @@
       <c r="O11" s="11">
         <v>1</v>
       </c>
-      <c r="P11" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="34">
+      <c r="P11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24">
         <v>0</v>
       </c>
       <c r="R11" s="11">
@@ -2142,8 +2210,12 @@
       <c r="U11" s="11">
         <v>1</v>
       </c>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
+      <c r="V11" s="11">
+        <v>1</v>
+      </c>
+      <c r="W11" s="11">
+        <v>0</v>
+      </c>
       <c r="X11" s="11"/>
       <c r="Y11" s="11">
         <v>1</v>
@@ -2188,25 +2260,25 @@
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>96</v>
+        <v>61</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="C12" s="9">
         <v>9</v>
       </c>
-      <c r="D12" s="35" t="s">
-        <v>97</v>
+      <c r="D12" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="0"/>
@@ -2237,8 +2309,8 @@
       <c r="Q12" s="10">
         <v>1</v>
       </c>
-      <c r="R12" s="36" t="s">
-        <v>96</v>
+      <c r="R12" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="S12" s="11">
         <v>0</v>
@@ -2248,6 +2320,12 @@
       </c>
       <c r="U12" s="11">
         <v>0</v>
+      </c>
+      <c r="V12" s="10">
+        <v>0</v>
+      </c>
+      <c r="W12" s="10">
+        <v>1</v>
       </c>
       <c r="Y12" s="10">
         <v>0</v>
@@ -2282,7 +2360,7 @@
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="9">
@@ -2297,7 +2375,7 @@
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="9">
@@ -2308,7 +2386,7 @@
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="9">
@@ -2319,7 +2397,7 @@
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="9">
@@ -2330,7 +2408,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="9">
@@ -2341,7 +2419,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="9">
@@ -2352,7 +2430,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="9">
@@ -2363,7 +2441,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="9">
@@ -2374,7 +2452,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="9">
@@ -2385,7 +2463,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="9">
@@ -2396,57 +2474,57 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2469,7 +2547,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -2484,7 +2562,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
@@ -2589,7 +2667,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2597,6 +2675,9 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>

--- a/P3TOME_MAIN_TABLE.xlsx
+++ b/P3TOME_MAIN_TABLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajf/Documents/GitHub/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94157A2-3CBB-F641-ABD3-9FB390F66822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F99625-A995-1D47-862B-81A3C312BB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4140" yWindow="-19220" windowWidth="30860" windowHeight="17040" xr2:uid="{BF91EB68-8200-D04C-ACEA-7728D8B81486}"/>
+    <workbookView xWindow="1760" yWindow="-20540" windowWidth="30860" windowHeight="20000" xr2:uid="{BF91EB68-8200-D04C-ACEA-7728D8B81486}"/>
   </bookViews>
   <sheets>
     <sheet name="P3Tome" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
   <si>
     <t>Final Pharmacy Product Type</t>
   </si>
@@ -416,6 +416,24 @@
   </si>
   <si>
     <t>P3Tome Unique Row Identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omnicell Central Pharmacy Manager </t>
+  </si>
+  <si>
+    <t>Inventory Update</t>
+  </si>
+  <si>
+    <t>Apoteca PS  System for IV Workflow Management</t>
+  </si>
+  <si>
+    <t>Product Scan</t>
+  </si>
+  <si>
+    <t>Picture of Filled Syringe</t>
+  </si>
+  <si>
+    <t>Weigh final product on the scale</t>
   </si>
 </sst>
 </file>
@@ -708,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -809,6 +827,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1126,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470AE0E9-15FB-9B45-982A-B5C4188457EE}">
   <dimension ref="A1:AT33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1165,10 +1186,14 @@
     <col min="32" max="32" width="29" style="1" customWidth="1"/>
     <col min="33" max="33" width="49.5" style="1" customWidth="1"/>
     <col min="34" max="34" width="54.5" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="10.83203125" style="1"/>
+    <col min="35" max="35" width="12.6640625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="19.5" style="1" customWidth="1"/>
+    <col min="37" max="37" width="20.33203125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="22.5" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>97</v>
       </c>
@@ -1207,10 +1232,18 @@
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
+      <c r="AI1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="AM1" s="12"/>
       <c r="AN1" s="12"/>
       <c r="AO1" s="12"/>
@@ -1280,7 +1313,7 @@
       <c r="AS2" s="33"/>
       <c r="AT2" s="33"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" ht="40" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>100</v>
       </c>
@@ -1381,10 +1414,18 @@
       <c r="AH3" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23"/>
+      <c r="AI3" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ3" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK3" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL3" s="39" t="s">
+        <v>106</v>
+      </c>
       <c r="AM3" s="23"/>
       <c r="AN3" s="23"/>
       <c r="AO3" s="23"/>
@@ -1489,10 +1530,18 @@
         <v>1</v>
       </c>
       <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
+      <c r="AI4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="11">
+        <v>1</v>
+      </c>
       <c r="AM4" s="11"/>
       <c r="AN4" s="11"/>
       <c r="AO4" s="11"/>
@@ -1597,10 +1646,18 @@
         <v>1</v>
       </c>
       <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="11"/>
+      <c r="AI5" s="11">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="11">
+        <v>1</v>
+      </c>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
@@ -1705,10 +1762,18 @@
         <v>1</v>
       </c>
       <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11"/>
+      <c r="AI6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="11">
+        <v>1</v>
+      </c>
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
       <c r="AO6" s="11"/>
@@ -1813,10 +1878,18 @@
         <v>1</v>
       </c>
       <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
+      <c r="AI7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="11">
+        <v>1</v>
+      </c>
       <c r="AM7" s="11"/>
       <c r="AN7" s="11"/>
       <c r="AO7" s="11"/>
@@ -1921,10 +1994,18 @@
         <v>1</v>
       </c>
       <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
+      <c r="AI8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="11">
+        <v>1</v>
+      </c>
       <c r="AM8" s="11"/>
       <c r="AN8" s="11"/>
       <c r="AO8" s="11"/>
@@ -2029,10 +2110,18 @@
         <v>1</v>
       </c>
       <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
+      <c r="AI9" s="11">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="11">
+        <v>1</v>
+      </c>
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
       <c r="AO9" s="11"/>
@@ -2137,10 +2226,18 @@
         <v>1</v>
       </c>
       <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
+      <c r="AI10" s="11">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="11">
+        <v>1</v>
+      </c>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
@@ -2245,10 +2342,18 @@
         <v>1</v>
       </c>
       <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
+      <c r="AI11" s="11">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>1</v>
+      </c>
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
       <c r="AO11" s="11"/>
@@ -2539,6 +2644,9 @@
     <mergeCell ref="S2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="H4:H6" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/P3TOME_MAIN_TABLE.xlsx
+++ b/P3TOME_MAIN_TABLE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8568\Box\Measuring Touches Research Study\Data Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8568\Documents\GitHub\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3026EF-9EC5-4387-A940-676DD0F99B6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F37DBE-2858-447D-AC72-155F7CE715A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF91EB68-8200-D04C-ACEA-7728D8B81486}"/>
   </bookViews>
@@ -885,6 +885,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -914,9 +917,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1234,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470AE0E9-15FB-9B45-982A-B5C4188457EE}">
   <dimension ref="A1:BA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T19" sqref="A19:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18"/>
@@ -1286,17 +1286,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="103.95" customHeight="1" thickBot="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -1359,71 +1359,71 @@
       <c r="BA1" s="11"/>
     </row>
     <row r="2" spans="1:53">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="38" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="37" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="39" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="40" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="36" t="s">
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
       <c r="AM2" s="26"/>
       <c r="AN2" s="26"/>
       <c r="AO2" s="26"/>
-      <c r="AP2" s="35" t="s">
+      <c r="AP2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
     </row>
     <row r="3" spans="1:53" ht="72">
       <c r="A3" s="18" t="s">
@@ -1496,13 +1496,13 @@
         <v>95</v>
       </c>
       <c r="X3" s="20"/>
-      <c r="Y3" s="41" t="s">
+      <c r="Y3" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="Z3" s="41" t="s">
+      <c r="Z3" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="AA3" s="41" t="s">
+      <c r="AA3" s="31" t="s">
         <v>127</v>
       </c>
       <c r="AB3" s="20" t="s">
@@ -3842,6 +3842,9 @@
     <row r="23" spans="1:48">
       <c r="A23" s="16" t="s">
         <v>71</v>
+      </c>
+      <c r="C23" s="9">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:48">

--- a/P3TOME_MAIN_TABLE.xlsx
+++ b/P3TOME_MAIN_TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8568\Documents\GitHub\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F37DBE-2858-447D-AC72-155F7CE715A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C19F6A-26E0-4253-9CA0-2A7949B4EAF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF91EB68-8200-D04C-ACEA-7728D8B81486}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="138">
   <si>
     <t>Final Pharmacy Product Type</t>
   </si>
@@ -503,6 +503,30 @@
   </si>
   <si>
     <t xml:space="preserve">Label Printer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivered Cabinet Restock Drug Product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drug product is removed from delivery tote and scanned into ADC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drug product is placed in drug-specific bin within ADC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omnicell Automated Dispensing Cabinet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Scan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received Drug Product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receiving </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drug product is removed from shipping tote and scanned into inventory </t>
   </si>
 </sst>
 </file>
@@ -801,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -888,6 +912,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -916,6 +943,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1232,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470AE0E9-15FB-9B45-982A-B5C4188457EE}">
-  <dimension ref="A1:BA33"/>
+  <dimension ref="A1:BD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18"/>
@@ -1276,27 +1327,32 @@
     <col min="36" max="36" width="51.796875" style="9" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="53.8984375" style="9" bestFit="1" customWidth="1"/>
     <col min="38" max="41" width="54.5" style="9" customWidth="1"/>
-    <col min="42" max="42" width="12.69921875" style="9" customWidth="1"/>
-    <col min="43" max="43" width="19.5" style="9" customWidth="1"/>
-    <col min="44" max="44" width="20.296875" style="9" customWidth="1"/>
-    <col min="45" max="45" width="22.5" style="9" customWidth="1"/>
-    <col min="46" max="46" width="10.796875" style="9"/>
-    <col min="47" max="47" width="13.19921875" style="9" customWidth="1"/>
-    <col min="48" max="16384" width="10.796875" style="9"/>
+    <col min="42" max="42" width="42.59765625" style="9" customWidth="1"/>
+    <col min="43" max="43" width="32.296875" style="9" customWidth="1"/>
+    <col min="44" max="44" width="54.5" style="9" customWidth="1"/>
+    <col min="45" max="45" width="12.69921875" style="9" customWidth="1"/>
+    <col min="46" max="46" width="19.5" style="9" customWidth="1"/>
+    <col min="47" max="47" width="20.296875" style="9" customWidth="1"/>
+    <col min="48" max="48" width="22.5" style="9" customWidth="1"/>
+    <col min="49" max="49" width="10.796875" style="9"/>
+    <col min="50" max="50" width="13.19921875" style="9" customWidth="1"/>
+    <col min="51" max="51" width="10.796875" style="9"/>
+    <col min="52" max="52" width="12.59765625" style="9" customWidth="1"/>
+    <col min="53" max="16384" width="10.796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="103.95" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:56" ht="103.95" customHeight="1" thickBot="1">
+      <c r="A1" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -1331,101 +1387,109 @@
       <c r="AM1" s="11"/>
       <c r="AN1" s="11"/>
       <c r="AO1" s="11"/>
-      <c r="AP1" s="12" t="s">
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AT1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AU1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AV1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AW1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AX1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AY1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
+      <c r="AZ1" s="12" t="s">
+        <v>133</v>
+      </c>
       <c r="BA1" s="11"/>
-    </row>
-    <row r="2" spans="1:53">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="39" t="s">
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+    </row>
+    <row r="2" spans="1:56">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="38" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="40" t="s">
+      <c r="I2" s="39"/>
+      <c r="J2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="41" t="s">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="37" t="s">
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
       <c r="AM2" s="26"/>
       <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="36" t="s">
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-    </row>
-    <row r="3" spans="1:53" ht="72">
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+    </row>
+    <row r="3" spans="1:56" ht="72">
       <c r="A3" s="18" t="s">
         <v>99</v>
       </c>
@@ -1547,34 +1611,45 @@
       <c r="AO3" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="AP3" s="27" t="s">
+      <c r="AP3" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ3" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR3" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS3" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="AQ3" s="21" t="s">
+      <c r="AT3" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="AR3" s="27" t="s">
+      <c r="AU3" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="AS3" s="27" t="s">
+      <c r="AV3" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="AT3" s="27" t="s">
+      <c r="AW3" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="AU3" s="27" t="s">
+      <c r="AX3" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="AV3" s="27" t="s">
+      <c r="AY3" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="AW3" s="21"/>
-      <c r="AX3" s="21"/>
-      <c r="AY3" s="21"/>
-      <c r="AZ3" s="21"/>
+      <c r="AZ3" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="BA3" s="21"/>
-    </row>
-    <row r="4" spans="1:53">
+      <c r="BB3" s="21"/>
+      <c r="BC3" s="21"/>
+      <c r="BD3" s="21"/>
+    </row>
+    <row r="4" spans="1:56">
       <c r="A4" s="14" t="s">
         <v>52</v>
       </c>
@@ -1674,40 +1749,63 @@
       <c r="AI4" s="10">
         <v>1</v>
       </c>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
+      <c r="AJ4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="10">
+        <v>0</v>
+      </c>
       <c r="AP4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="10">
         <v>1</v>
       </c>
       <c r="AT4" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="10"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="10"/>
-      <c r="AZ4" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="10">
+        <v>0</v>
+      </c>
       <c r="BA4" s="10"/>
-    </row>
-    <row r="5" spans="1:53">
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+    </row>
+    <row r="5" spans="1:56">
       <c r="A5" s="14" t="s">
         <v>53</v>
       </c>
@@ -1807,40 +1905,63 @@
       <c r="AI5" s="10">
         <v>1</v>
       </c>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
+      <c r="AJ5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="10">
+        <v>0</v>
+      </c>
       <c r="AP5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="10">
         <v>1</v>
       </c>
       <c r="AT5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="10"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="10"/>
-      <c r="AZ5" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="AW5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="10">
+        <v>0</v>
+      </c>
       <c r="BA5" s="10"/>
-    </row>
-    <row r="6" spans="1:53">
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+    </row>
+    <row r="6" spans="1:56">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
@@ -1940,40 +2061,63 @@
       <c r="AI6" s="10">
         <v>1</v>
       </c>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
+      <c r="AJ6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="10">
+        <v>0</v>
+      </c>
       <c r="AP6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="10">
         <v>1</v>
       </c>
       <c r="AT6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
-      <c r="AZ6" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="AW6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="10">
+        <v>0</v>
+      </c>
       <c r="BA6" s="10"/>
-    </row>
-    <row r="7" spans="1:53">
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+    </row>
+    <row r="7" spans="1:56">
       <c r="A7" s="14" t="s">
         <v>55</v>
       </c>
@@ -2073,40 +2217,63 @@
       <c r="AI7" s="10">
         <v>1</v>
       </c>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
+      <c r="AJ7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="10">
+        <v>0</v>
+      </c>
       <c r="AP7" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS7" s="10">
         <v>1</v>
       </c>
       <c r="AT7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="10"/>
-      <c r="AX7" s="10"/>
-      <c r="AY7" s="10"/>
-      <c r="AZ7" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="AW7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="10">
+        <v>0</v>
+      </c>
       <c r="BA7" s="10"/>
-    </row>
-    <row r="8" spans="1:53">
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="10"/>
+    </row>
+    <row r="8" spans="1:56">
       <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
@@ -2206,40 +2373,63 @@
       <c r="AI8" s="10">
         <v>1</v>
       </c>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
+      <c r="AJ8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="10">
+        <v>0</v>
+      </c>
       <c r="AP8" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="10">
         <v>1</v>
       </c>
       <c r="AT8" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
-      <c r="AY8" s="10"/>
-      <c r="AZ8" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="AW8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="10">
+        <v>0</v>
+      </c>
       <c r="BA8" s="10"/>
-    </row>
-    <row r="9" spans="1:53">
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="10"/>
+      <c r="BD8" s="10"/>
+    </row>
+    <row r="9" spans="1:56">
       <c r="A9" s="14" t="s">
         <v>57</v>
       </c>
@@ -2339,40 +2529,63 @@
       <c r="AI9" s="10">
         <v>1</v>
       </c>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
+      <c r="AJ9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="10">
+        <v>0</v>
+      </c>
       <c r="AP9" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="10">
         <v>1</v>
       </c>
       <c r="AT9" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="AW9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="10">
+        <v>0</v>
+      </c>
       <c r="BA9" s="10"/>
-    </row>
-    <row r="10" spans="1:53">
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="10"/>
+      <c r="BD9" s="10"/>
+    </row>
+    <row r="10" spans="1:56">
       <c r="A10" s="14" t="s">
         <v>58</v>
       </c>
@@ -2472,40 +2685,63 @@
       <c r="AI10" s="10">
         <v>1</v>
       </c>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
+      <c r="AJ10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="10">
+        <v>0</v>
+      </c>
       <c r="AP10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS10" s="10">
         <v>1</v>
       </c>
       <c r="AT10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="10"/>
-      <c r="AZ10" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="AW10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="10">
+        <v>0</v>
+      </c>
       <c r="BA10" s="10"/>
-    </row>
-    <row r="11" spans="1:53">
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="10"/>
+      <c r="BD10" s="10"/>
+    </row>
+    <row r="11" spans="1:56">
       <c r="A11" s="14" t="s">
         <v>59</v>
       </c>
@@ -2605,40 +2841,63 @@
       <c r="AI11" s="10">
         <v>1</v>
       </c>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="10"/>
+      <c r="AJ11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="10">
+        <v>0</v>
+      </c>
       <c r="AP11" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR11" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="10">
         <v>1</v>
       </c>
       <c r="AT11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="10"/>
-      <c r="AX11" s="10"/>
-      <c r="AY11" s="10"/>
-      <c r="AZ11" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="AW11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="10">
+        <v>0</v>
+      </c>
       <c r="BA11" s="10"/>
-    </row>
-    <row r="12" spans="1:53">
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="10"/>
+    </row>
+    <row r="12" spans="1:56">
       <c r="A12" s="14" t="s">
         <v>60</v>
       </c>
@@ -2740,14 +2999,41 @@
       <c r="AI12" s="9">
         <v>0</v>
       </c>
+      <c r="AJ12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="10">
+        <v>0</v>
+      </c>
       <c r="AL12" s="9">
         <v>1</v>
       </c>
-      <c r="AV12" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53">
+      <c r="AM12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56">
       <c r="A13" s="14" t="s">
         <v>61</v>
       </c>
@@ -2843,38 +3129,59 @@
       <c r="AI13" s="9">
         <v>0</v>
       </c>
+      <c r="AJ13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="10">
+        <v>0</v>
+      </c>
       <c r="AL13" s="9">
         <v>0</v>
       </c>
+      <c r="AM13" s="10">
+        <v>0</v>
+      </c>
       <c r="AN13" s="9">
         <v>1</v>
       </c>
       <c r="AO13" s="9">
         <v>0</v>
       </c>
-      <c r="AP13" s="9">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="9">
+      <c r="AP13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="10">
         <v>0</v>
       </c>
       <c r="AS13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="9">
         <v>0</v>
       </c>
-      <c r="AV13" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
+      <c r="AV13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56">
       <c r="A14" s="14" t="s">
         <v>62</v>
       </c>
@@ -2970,38 +3277,59 @@
       <c r="AI14" s="9">
         <v>0</v>
       </c>
+      <c r="AJ14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="10">
+        <v>0</v>
+      </c>
       <c r="AL14" s="9">
         <v>0</v>
       </c>
+      <c r="AM14" s="10">
+        <v>0</v>
+      </c>
       <c r="AN14" s="9">
         <v>1</v>
       </c>
       <c r="AO14" s="9">
         <v>1</v>
       </c>
-      <c r="AP14" s="9">
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="9">
+      <c r="AP14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="10">
         <v>0</v>
       </c>
       <c r="AS14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="9">
         <v>0</v>
       </c>
-      <c r="AV14" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
+      <c r="AV14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56">
       <c r="A15" s="14" t="s">
         <v>63</v>
       </c>
@@ -3100,22 +3428,31 @@
       <c r="AI15" s="9">
         <v>0</v>
       </c>
+      <c r="AJ15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="10">
+        <v>0</v>
+      </c>
       <c r="AL15" s="9">
         <v>1</v>
       </c>
+      <c r="AM15" s="10">
+        <v>0</v>
+      </c>
       <c r="AN15" s="9">
         <v>0</v>
       </c>
       <c r="AO15" s="9">
         <v>0</v>
       </c>
-      <c r="AP15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="9">
+      <c r="AP15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="10">
         <v>0</v>
       </c>
       <c r="AS15" s="9">
@@ -3125,13 +3462,25 @@
         <v>0</v>
       </c>
       <c r="AU15" s="9">
-        <v>1</v>
-      </c>
-      <c r="AV15" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56">
       <c r="A16" s="14" t="s">
         <v>64</v>
       </c>
@@ -3239,23 +3588,26 @@
       <c r="AL16" s="9">
         <v>0</v>
       </c>
+      <c r="AM16" s="10">
+        <v>0</v>
+      </c>
       <c r="AN16" s="9">
         <v>0</v>
       </c>
       <c r="AO16" s="9">
         <v>0</v>
       </c>
-      <c r="AP16" s="9">
-        <v>1</v>
-      </c>
-      <c r="AQ16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="9">
+      <c r="AP16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="10">
         <v>0</v>
       </c>
       <c r="AS16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="9">
         <v>0</v>
@@ -3264,10 +3616,22 @@
         <v>0</v>
       </c>
       <c r="AV16" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:48">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52">
       <c r="A17" s="14" t="s">
         <v>65</v>
       </c>
@@ -3375,23 +3739,26 @@
       <c r="AL17" s="9">
         <v>0</v>
       </c>
+      <c r="AM17" s="10">
+        <v>0</v>
+      </c>
       <c r="AN17" s="9">
         <v>0</v>
       </c>
       <c r="AO17" s="9">
         <v>0</v>
       </c>
-      <c r="AP17" s="9">
-        <v>1</v>
-      </c>
-      <c r="AQ17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="9">
+      <c r="AP17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="10">
         <v>0</v>
       </c>
       <c r="AS17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="9">
         <v>0</v>
@@ -3400,146 +3767,170 @@
         <v>0</v>
       </c>
       <c r="AV17" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:48">
-      <c r="A18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AZ17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" s="46" customFormat="1">
+      <c r="A18" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8">
+      <c r="B18" s="44"/>
+      <c r="C18" s="45">
         <v>15</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="H18" s="13">
-        <v>1</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="9">
-        <v>1</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>1</v>
-      </c>
-      <c r="M18" s="9">
-        <v>1</v>
-      </c>
-      <c r="N18" s="9">
-        <v>1</v>
-      </c>
-      <c r="O18" s="9">
-        <v>0</v>
-      </c>
-      <c r="P18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>1</v>
-      </c>
-      <c r="R18" s="9">
-        <v>0</v>
-      </c>
-      <c r="S18" s="29">
-        <v>0</v>
-      </c>
-      <c r="T18" s="29">
-        <v>0</v>
-      </c>
-      <c r="U18" s="29">
-        <v>0</v>
-      </c>
-      <c r="V18" s="29">
-        <v>0</v>
-      </c>
-      <c r="W18" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="9">
-        <v>1</v>
-      </c>
-      <c r="AN18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="9">
-        <v>1</v>
-      </c>
-      <c r="AV18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:48">
+      <c r="H18" s="47">
+        <v>1</v>
+      </c>
+      <c r="I18" s="47"/>
+      <c r="J18" s="46">
+        <v>1</v>
+      </c>
+      <c r="K18" s="46">
+        <v>0</v>
+      </c>
+      <c r="L18" s="46">
+        <v>1</v>
+      </c>
+      <c r="M18" s="46">
+        <v>1</v>
+      </c>
+      <c r="N18" s="46">
+        <v>1</v>
+      </c>
+      <c r="O18" s="46">
+        <v>0</v>
+      </c>
+      <c r="P18" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="46">
+        <v>1</v>
+      </c>
+      <c r="R18" s="46">
+        <v>0</v>
+      </c>
+      <c r="S18" s="48">
+        <v>0</v>
+      </c>
+      <c r="T18" s="48">
+        <v>0</v>
+      </c>
+      <c r="U18" s="48">
+        <v>0</v>
+      </c>
+      <c r="V18" s="48">
+        <v>0</v>
+      </c>
+      <c r="W18" s="48">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="46">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="49">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="49">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="49">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="46">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52">
       <c r="A19" s="14" t="s">
         <v>67</v>
       </c>
@@ -3656,17 +4047,17 @@
       <c r="AO19" s="9">
         <v>0</v>
       </c>
-      <c r="AP19" s="9">
-        <v>1</v>
-      </c>
-      <c r="AQ19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="9">
+      <c r="AP19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="10">
         <v>0</v>
       </c>
       <c r="AS19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="9">
         <v>0</v>
@@ -3675,10 +4066,22 @@
         <v>0</v>
       </c>
       <c r="AV19" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:48">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="9">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52">
       <c r="A20" s="14" t="s">
         <v>68</v>
       </c>
@@ -3795,17 +4198,17 @@
       <c r="AO20" s="9">
         <v>0</v>
       </c>
-      <c r="AP20" s="9">
-        <v>1</v>
-      </c>
-      <c r="AQ20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="9">
+      <c r="AP20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="10">
         <v>0</v>
       </c>
       <c r="AS20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="9">
         <v>0</v>
@@ -3814,10 +4217,22 @@
         <v>0</v>
       </c>
       <c r="AV20" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:48">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="9">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52">
       <c r="A21" s="15" t="s">
         <v>69</v>
       </c>
@@ -3825,10 +4240,150 @@
       <c r="C21" s="8">
         <v>18</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="D21" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="13">
+        <v>2</v>
+      </c>
       <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:48">
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>1</v>
+      </c>
+      <c r="R21" s="9">
+        <v>1</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0</v>
+      </c>
+      <c r="U21" s="9">
+        <v>0</v>
+      </c>
+      <c r="V21" s="9">
+        <v>0</v>
+      </c>
+      <c r="W21" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="9">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52">
       <c r="A22" s="14" t="s">
         <v>70</v>
       </c>
@@ -3836,58 +4391,334 @@
       <c r="C22" s="8">
         <v>19</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="D22" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1</v>
+      </c>
       <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:48">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>1</v>
+      </c>
+      <c r="R22" s="9">
+        <v>1</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0</v>
+      </c>
+      <c r="U22" s="9">
+        <v>0</v>
+      </c>
+      <c r="V22" s="9">
+        <v>0</v>
+      </c>
+      <c r="W22" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="9">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52">
       <c r="A23" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C23" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:48">
+      <c r="D23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="50">
+        <v>1</v>
+      </c>
+      <c r="I23" s="50"/>
+      <c r="J23" s="9">
+        <v>1</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>1</v>
+      </c>
+      <c r="M23" s="9">
+        <v>1</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>1</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>1</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0</v>
+      </c>
+      <c r="U23" s="9">
+        <v>0</v>
+      </c>
+      <c r="V23" s="9">
+        <v>0</v>
+      </c>
+      <c r="W23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52">
       <c r="A24" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:52">
       <c r="A25" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:52">
       <c r="A26" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:52">
       <c r="A27" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:52">
       <c r="A28" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:52">
       <c r="A29" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:52">
       <c r="A30" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:52">
       <c r="A31" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:52">
       <c r="A32" s="14" t="s">
         <v>80</v>
       </c>
@@ -3901,7 +4732,7 @@
   <mergeCells count="8">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="AP2:BA2"/>
+    <mergeCell ref="AS2:BD2"/>
     <mergeCell ref="Y2:AL2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D2:G2"/>

--- a/P3TOME_MAIN_TABLE.xlsx
+++ b/P3TOME_MAIN_TABLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8568\Documents\GitHub\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajf/Documents/GitHub/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C19F6A-26E0-4253-9CA0-2A7949B4EAF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A168B60-E830-9549-9E9E-23B18C3D8073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF91EB68-8200-D04C-ACEA-7728D8B81486}"/>
+    <workbookView xWindow="-4120" yWindow="-18520" windowWidth="31120" windowHeight="19860" xr2:uid="{BF91EB68-8200-D04C-ACEA-7728D8B81486}"/>
   </bookViews>
   <sheets>
     <sheet name="P3Tome" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -825,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -888,9 +888,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -913,6 +910,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -945,35 +966,58 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1285,74 +1329,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470AE0E9-15FB-9B45-982A-B5C4188457EE}">
   <dimension ref="A1:BD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.296875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="9" customWidth="1"/>
     <col min="2" max="2" width="16" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.796875" style="9"/>
-    <col min="4" max="4" width="62.296875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.296875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="62" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.33203125" style="9" customWidth="1"/>
     <col min="7" max="7" width="38" style="9" customWidth="1"/>
-    <col min="8" max="8" width="14.796875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="9" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="9" customWidth="1"/>
-    <col min="10" max="10" width="14.69921875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="9" customWidth="1"/>
     <col min="11" max="11" width="12" style="9" customWidth="1"/>
     <col min="12" max="12" width="15.5" style="9" customWidth="1"/>
-    <col min="13" max="13" width="16.796875" style="9" customWidth="1"/>
-    <col min="14" max="14" width="14.296875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.796875" style="9"/>
-    <col min="16" max="16" width="31.69921875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="33.796875" style="9" customWidth="1"/>
-    <col min="18" max="18" width="24.296875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="9"/>
+    <col min="16" max="16" width="31.6640625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="33.83203125" style="9" customWidth="1"/>
+    <col min="18" max="18" width="24.33203125" style="9" customWidth="1"/>
     <col min="19" max="19" width="13" style="9" customWidth="1"/>
     <col min="20" max="20" width="26.5" style="9" customWidth="1"/>
-    <col min="21" max="21" width="28.69921875" style="9" customWidth="1"/>
+    <col min="21" max="21" width="28.6640625" style="9" customWidth="1"/>
     <col min="22" max="22" width="28" style="9" customWidth="1"/>
-    <col min="23" max="23" width="28.296875" style="9" customWidth="1"/>
-    <col min="24" max="24" width="24.796875" style="9" customWidth="1"/>
-    <col min="25" max="27" width="23.19921875" style="9" customWidth="1"/>
+    <col min="23" max="23" width="28.33203125" style="9" customWidth="1"/>
+    <col min="24" max="24" width="24.83203125" style="9" customWidth="1"/>
+    <col min="25" max="27" width="23.1640625" style="9" customWidth="1"/>
     <col min="28" max="28" width="35.5" style="9" customWidth="1"/>
     <col min="29" max="29" width="19.5" style="9" customWidth="1"/>
-    <col min="30" max="30" width="19.69921875" style="9" customWidth="1"/>
-    <col min="31" max="31" width="44.69921875" style="9" customWidth="1"/>
-    <col min="32" max="32" width="35.796875" style="9" customWidth="1"/>
-    <col min="33" max="33" width="40.19921875" style="9" customWidth="1"/>
+    <col min="30" max="30" width="19.6640625" style="9" customWidth="1"/>
+    <col min="31" max="31" width="44.6640625" style="9" customWidth="1"/>
+    <col min="32" max="32" width="35.83203125" style="9" customWidth="1"/>
+    <col min="33" max="33" width="40.1640625" style="9" customWidth="1"/>
     <col min="34" max="34" width="29" style="9" customWidth="1"/>
     <col min="35" max="35" width="49.5" style="9" customWidth="1"/>
-    <col min="36" max="36" width="51.796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="53.8984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="51.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="53.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="38" max="41" width="54.5" style="9" customWidth="1"/>
-    <col min="42" max="42" width="42.59765625" style="9" customWidth="1"/>
-    <col min="43" max="43" width="32.296875" style="9" customWidth="1"/>
+    <col min="42" max="42" width="42.6640625" style="9" customWidth="1"/>
+    <col min="43" max="43" width="32.33203125" style="9" customWidth="1"/>
     <col min="44" max="44" width="54.5" style="9" customWidth="1"/>
-    <col min="45" max="45" width="12.69921875" style="9" customWidth="1"/>
+    <col min="45" max="45" width="12.6640625" style="9" customWidth="1"/>
     <col min="46" max="46" width="19.5" style="9" customWidth="1"/>
-    <col min="47" max="47" width="20.296875" style="9" customWidth="1"/>
+    <col min="47" max="47" width="20.33203125" style="9" customWidth="1"/>
     <col min="48" max="48" width="22.5" style="9" customWidth="1"/>
-    <col min="49" max="49" width="10.796875" style="9"/>
-    <col min="50" max="50" width="13.19921875" style="9" customWidth="1"/>
-    <col min="51" max="51" width="10.796875" style="9"/>
-    <col min="52" max="52" width="12.59765625" style="9" customWidth="1"/>
-    <col min="53" max="16384" width="10.796875" style="9"/>
+    <col min="49" max="49" width="10.83203125" style="9"/>
+    <col min="50" max="50" width="13.1640625" style="9" customWidth="1"/>
+    <col min="51" max="51" width="10.83203125" style="9"/>
+    <col min="52" max="52" width="12.6640625" style="9" customWidth="1"/>
+    <col min="53" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="103.95" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:56" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -1419,77 +1463,77 @@
       <c r="BC1" s="11"/>
       <c r="BD1" s="11"/>
     </row>
-    <row r="2" spans="1:56">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="40" t="s">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41" t="s">
+      <c r="I2" s="46"/>
+      <c r="J2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="42" t="s">
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="38" t="s">
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="37" t="s">
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-    </row>
-    <row r="3" spans="1:56" ht="72">
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="44"/>
+      <c r="BD2" s="44"/>
+    </row>
+    <row r="3" spans="1:56" ht="100" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>99</v>
       </c>
@@ -1529,7 +1573,7 @@
       <c r="M3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="20" t="s">
         <v>34</v>
       </c>
       <c r="O3" s="20" t="s">
@@ -1560,13 +1604,13 @@
         <v>95</v>
       </c>
       <c r="X3" s="20"/>
-      <c r="Y3" s="31" t="s">
+      <c r="Y3" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="Z3" s="31" t="s">
+      <c r="Z3" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="AA3" s="31" t="s">
+      <c r="AA3" s="30" t="s">
         <v>127</v>
       </c>
       <c r="AB3" s="20" t="s">
@@ -1599,49 +1643,49 @@
       <c r="AK3" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="AL3" s="24" t="s">
+      <c r="AL3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="AM3" s="24" t="s">
+      <c r="AM3" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="AN3" s="28" t="s">
+      <c r="AN3" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="AO3" s="28" t="s">
+      <c r="AO3" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="AP3" s="28" t="s">
+      <c r="AP3" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="AQ3" s="28" t="s">
+      <c r="AQ3" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="AR3" s="28" t="s">
+      <c r="AR3" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="AS3" s="27" t="s">
+      <c r="AS3" s="26" t="s">
         <v>101</v>
       </c>
       <c r="AT3" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="AU3" s="27" t="s">
+      <c r="AU3" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="AV3" s="27" t="s">
+      <c r="AV3" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="AW3" s="27" t="s">
+      <c r="AW3" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="AX3" s="27" t="s">
+      <c r="AX3" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="AY3" s="27" t="s">
+      <c r="AY3" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="AZ3" s="27" t="s">
+      <c r="AZ3" s="26" t="s">
         <v>134</v>
       </c>
       <c r="BA3" s="21"/>
@@ -1649,7 +1693,7 @@
       <c r="BC3" s="21"/>
       <c r="BD3" s="21"/>
     </row>
-    <row r="4" spans="1:56">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>52</v>
       </c>
@@ -1694,7 +1738,7 @@
       <c r="P4" s="22">
         <v>0</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="29">
         <v>0</v>
       </c>
       <c r="R4" s="10">
@@ -1805,7 +1849,7 @@
       <c r="BC4" s="10"/>
       <c r="BD4" s="10"/>
     </row>
-    <row r="5" spans="1:56">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>53</v>
       </c>
@@ -1850,7 +1894,7 @@
       <c r="P5" s="22">
         <v>0</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="29">
         <v>0</v>
       </c>
       <c r="R5" s="10">
@@ -1961,7 +2005,7 @@
       <c r="BC5" s="10"/>
       <c r="BD5" s="10"/>
     </row>
-    <row r="6" spans="1:56">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
@@ -2006,7 +2050,7 @@
       <c r="P6" s="22">
         <v>0</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="29">
         <v>0</v>
       </c>
       <c r="R6" s="10">
@@ -2117,7 +2161,7 @@
       <c r="BC6" s="10"/>
       <c r="BD6" s="10"/>
     </row>
-    <row r="7" spans="1:56">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>55</v>
       </c>
@@ -2162,7 +2206,7 @@
       <c r="P7" s="22">
         <v>0</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="29">
         <v>0</v>
       </c>
       <c r="R7" s="10">
@@ -2273,7 +2317,7 @@
       <c r="BC7" s="10"/>
       <c r="BD7" s="10"/>
     </row>
-    <row r="8" spans="1:56">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
@@ -2318,7 +2362,7 @@
       <c r="P8" s="22">
         <v>0</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="29">
         <v>0</v>
       </c>
       <c r="R8" s="10">
@@ -2429,7 +2473,7 @@
       <c r="BC8" s="10"/>
       <c r="BD8" s="10"/>
     </row>
-    <row r="9" spans="1:56">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>57</v>
       </c>
@@ -2474,7 +2518,7 @@
       <c r="P9" s="22">
         <v>0</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="29">
         <v>0</v>
       </c>
       <c r="R9" s="10">
@@ -2585,7 +2629,7 @@
       <c r="BC9" s="10"/>
       <c r="BD9" s="10"/>
     </row>
-    <row r="10" spans="1:56">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>58</v>
       </c>
@@ -2630,7 +2674,7 @@
       <c r="P10" s="22">
         <v>0</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="Q10" s="29">
         <v>0</v>
       </c>
       <c r="R10" s="10">
@@ -2741,7 +2785,7 @@
       <c r="BC10" s="10"/>
       <c r="BD10" s="10"/>
     </row>
-    <row r="11" spans="1:56">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>59</v>
       </c>
@@ -2786,7 +2830,7 @@
       <c r="P11" s="22">
         <v>0</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="29">
         <v>0</v>
       </c>
       <c r="R11" s="10">
@@ -2897,11 +2941,11 @@
       <c r="BC11" s="10"/>
       <c r="BD11" s="10"/>
     </row>
-    <row r="12" spans="1:56">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>91</v>
       </c>
       <c r="C12" s="8">
@@ -3033,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:56">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>61</v>
       </c>
@@ -3181,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:56">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>62</v>
       </c>
@@ -3329,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:56">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>63</v>
       </c>
@@ -3377,7 +3421,7 @@
       <c r="Q15" s="9">
         <v>1</v>
       </c>
-      <c r="R15" s="29">
+      <c r="R15" s="28">
         <v>1</v>
       </c>
       <c r="S15" s="9">
@@ -3389,10 +3433,10 @@
       <c r="U15" s="9">
         <v>0</v>
       </c>
-      <c r="V15" s="29">
-        <v>0</v>
-      </c>
-      <c r="W15" s="29">
+      <c r="V15" s="28">
+        <v>0</v>
+      </c>
+      <c r="W15" s="28">
         <v>1</v>
       </c>
       <c r="Y15" s="9">
@@ -3480,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:56">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>64</v>
       </c>
@@ -3528,7 +3572,7 @@
       <c r="Q16" s="9">
         <v>1</v>
       </c>
-      <c r="R16" s="29">
+      <c r="R16" s="28">
         <v>1</v>
       </c>
       <c r="S16" s="9">
@@ -3540,10 +3584,10 @@
       <c r="U16" s="9">
         <v>0</v>
       </c>
-      <c r="V16" s="29">
-        <v>0</v>
-      </c>
-      <c r="W16" s="29">
+      <c r="V16" s="28">
+        <v>0</v>
+      </c>
+      <c r="W16" s="28">
         <v>1</v>
       </c>
       <c r="Y16" s="9">
@@ -3631,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>65</v>
       </c>
@@ -3782,155 +3826,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:52" s="46" customFormat="1">
-      <c r="A18" s="43" t="s">
+    <row r="18" spans="1:52" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45">
+      <c r="B18" s="33"/>
+      <c r="C18" s="34">
         <v>15</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="H18" s="47">
-        <v>1</v>
-      </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="46">
-        <v>1</v>
-      </c>
-      <c r="K18" s="46">
-        <v>0</v>
-      </c>
-      <c r="L18" s="46">
-        <v>1</v>
-      </c>
-      <c r="M18" s="46">
-        <v>1</v>
-      </c>
-      <c r="N18" s="46">
-        <v>1</v>
-      </c>
-      <c r="O18" s="46">
-        <v>0</v>
-      </c>
-      <c r="P18" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="46">
-        <v>1</v>
-      </c>
-      <c r="R18" s="46">
-        <v>0</v>
-      </c>
-      <c r="S18" s="48">
-        <v>0</v>
-      </c>
-      <c r="T18" s="48">
-        <v>0</v>
-      </c>
-      <c r="U18" s="48">
-        <v>0</v>
-      </c>
-      <c r="V18" s="48">
-        <v>0</v>
-      </c>
-      <c r="W18" s="48">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="46">
-        <v>1</v>
-      </c>
-      <c r="AN18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="49">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="49">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="49">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="46">
-        <v>1</v>
-      </c>
-      <c r="AY18" s="46">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:52">
+      <c r="H18" s="36">
+        <v>1</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="35">
+        <v>1</v>
+      </c>
+      <c r="K18" s="35">
+        <v>0</v>
+      </c>
+      <c r="L18" s="35">
+        <v>1</v>
+      </c>
+      <c r="M18" s="35">
+        <v>1</v>
+      </c>
+      <c r="N18" s="35">
+        <v>1</v>
+      </c>
+      <c r="O18" s="35">
+        <v>0</v>
+      </c>
+      <c r="P18" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="35">
+        <v>1</v>
+      </c>
+      <c r="R18" s="35">
+        <v>0</v>
+      </c>
+      <c r="S18" s="37">
+        <v>0</v>
+      </c>
+      <c r="T18" s="37">
+        <v>0</v>
+      </c>
+      <c r="U18" s="37">
+        <v>0</v>
+      </c>
+      <c r="V18" s="37">
+        <v>0</v>
+      </c>
+      <c r="W18" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="38">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="35">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>67</v>
       </c>
@@ -4081,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>68</v>
       </c>
@@ -4232,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>69</v>
       </c>
@@ -4383,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>70</v>
       </c>
@@ -4531,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>71</v>
       </c>
@@ -4547,10 +4591,10 @@
       <c r="F23" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="50">
-        <v>1</v>
-      </c>
-      <c r="I23" s="50"/>
+      <c r="H23" s="39">
+        <v>1</v>
+      </c>
+      <c r="I23" s="39"/>
       <c r="J23" s="9">
         <v>1</v>
       </c>
@@ -4678,52 +4722,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>81</v>
       </c>
@@ -4739,6 +4783,11 @@
     <mergeCell ref="J2:R2"/>
     <mergeCell ref="S2:X2"/>
   </mergeCells>
+  <conditionalFormatting sqref="Y4:AR23">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",Y4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
@@ -4755,17 +4804,17 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="23.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.19921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="97.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="54.5" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.796875" style="2"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" thickBot="1">
+    <row r="1" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>98</v>
       </c>
@@ -4782,7 +4831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
         <v>17</v>
@@ -4797,7 +4846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -4806,7 +4855,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>15</v>
@@ -4815,7 +4864,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -4824,7 +4873,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -4833,7 +4882,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>16</v>
@@ -4842,7 +4891,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>2</v>
@@ -4851,7 +4900,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>22</v>
@@ -4860,7 +4909,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -4869,7 +4918,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>26</v>
@@ -4878,7 +4927,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>97</v>
@@ -4887,73 +4936,73 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>

--- a/P3TOME_MAIN_TABLE.xlsx
+++ b/P3TOME_MAIN_TABLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8568\Box\Conor.Myers@omnicell.com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8568\Documents\GitHub\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7842922F-8FBD-4F13-AD5B-393CB31A920F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEEAEC4-4918-47FD-8968-859DAC3ABDEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AE33428-D182-42D5-AFDE-FE4D4D8A2EF5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AE33428-D182-42D5-AFDE-FE4D4D8A2EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,13 +683,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="7"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="7"/>
       <name val="Calibri"/>
@@ -957,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1001,9 +994,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,9 +1025,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1084,6 +1071,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1401,9 +1391,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E120A15-25A9-4B1F-A880-19C04E670047}">
   <dimension ref="A1:BS47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BH26" sqref="BH26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="18"/>
@@ -1412,7 +1402,7 @@
     <col min="2" max="2" width="17.77734375" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="73.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="54.77734375" style="3" customWidth="1"/>
     <col min="7" max="7" width="42.21875" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.44140625" style="3" customWidth="1"/>
@@ -1469,17 +1459,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="72.599999999999994" thickBot="1">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1551,7 +1541,7 @@
       <c r="BJ1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="BK1" s="27" t="s">
+      <c r="BK1" s="41" t="s">
         <v>6</v>
       </c>
       <c r="BL1" s="2" t="s">
@@ -1580,60 +1570,60 @@
       </c>
     </row>
     <row r="2" spans="1:71">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="42" t="s">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="33" t="s">
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
       <c r="AS2" s="4"/>
       <c r="AT2" s="4"/>
       <c r="AU2" s="4"/>
@@ -1641,28 +1631,28 @@
       <c r="AW2" s="4"/>
       <c r="AX2" s="4"/>
       <c r="AY2" s="4"/>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="34" t="s">
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="BD2" s="34"/>
-      <c r="BE2" s="34"/>
-      <c r="BF2" s="34"/>
-      <c r="BG2" s="34"/>
-      <c r="BH2" s="34"/>
-      <c r="BI2" s="34"/>
-      <c r="BJ2" s="34"/>
-      <c r="BK2" s="34"/>
-      <c r="BL2" s="34"/>
-      <c r="BM2" s="34"/>
-      <c r="BN2" s="34"/>
-      <c r="BO2" s="34"/>
-      <c r="BP2" s="34"/>
-      <c r="BQ2" s="34"/>
-      <c r="BR2" s="34"/>
-      <c r="BS2" s="34"/>
+      <c r="BD2" s="32"/>
+      <c r="BE2" s="32"/>
+      <c r="BF2" s="32"/>
+      <c r="BG2" s="32"/>
+      <c r="BH2" s="32"/>
+      <c r="BI2" s="32"/>
+      <c r="BJ2" s="32"/>
+      <c r="BK2" s="32"/>
+      <c r="BL2" s="32"/>
+      <c r="BM2" s="32"/>
+      <c r="BN2" s="32"/>
+      <c r="BO2" s="32"/>
+      <c r="BP2" s="32"/>
+      <c r="BQ2" s="32"/>
+      <c r="BR2" s="32"/>
+      <c r="BS2" s="32"/>
     </row>
     <row r="3" spans="1:71" s="14" customFormat="1" ht="90">
       <c r="A3" s="5" t="s">
@@ -1753,7 +1743,7 @@
       <c r="AD3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AE3" s="26" t="s">
+      <c r="AE3" s="25" t="s">
         <v>145</v>
       </c>
       <c r="AF3" s="6" t="s">
@@ -1922,7 +1912,7 @@
       <c r="P4" s="15">
         <v>0</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="15">
         <v>0</v>
       </c>
       <c r="R4" s="14">
@@ -2057,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="BK4" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL4" s="14">
         <v>0</v>
@@ -2103,11 +2093,11 @@
       <c r="F5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <f>SUM(Y5:AR5)</f>
         <v>6</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="14">
         <v>1</v>
       </c>
@@ -2129,7 +2119,7 @@
       <c r="P5" s="15">
         <v>0</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="15">
         <v>0</v>
       </c>
       <c r="R5" s="14">
@@ -2264,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL5" s="14">
         <v>0</v>
@@ -2310,11 +2300,11 @@
       <c r="F6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <f>SUM(Y6:AR6)</f>
         <v>6</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="14">
         <v>1</v>
       </c>
@@ -2336,7 +2326,7 @@
       <c r="P6" s="15">
         <v>0</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="15">
         <v>0</v>
       </c>
       <c r="R6" s="14">
@@ -2471,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="BK6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL6" s="14">
         <v>0</v>
@@ -2517,11 +2507,11 @@
       <c r="F7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <f>SUM(Y7:AR7)</f>
         <v>7</v>
       </c>
-      <c r="I7" s="17"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="14">
         <v>1</v>
       </c>
@@ -2543,7 +2533,7 @@
       <c r="P7" s="15">
         <v>0</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="15">
         <v>0</v>
       </c>
       <c r="R7" s="14">
@@ -2678,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL7" s="14">
         <v>0</v>
@@ -2724,11 +2714,11 @@
       <c r="F8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <f t="shared" ref="H8:H12" si="0">SUM(Y8:AR8)</f>
         <v>7</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="16"/>
       <c r="J8" s="14">
         <v>1</v>
       </c>
@@ -2750,7 +2740,7 @@
       <c r="P8" s="15">
         <v>0</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="15">
         <v>0</v>
       </c>
       <c r="R8" s="14">
@@ -2885,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="BK8" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL8" s="14">
         <v>0</v>
@@ -2931,11 +2921,11 @@
       <c r="F9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I9" s="17"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="14">
         <v>1</v>
       </c>
@@ -2957,7 +2947,7 @@
       <c r="P9" s="15">
         <v>0</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="15">
         <v>0</v>
       </c>
       <c r="R9" s="14">
@@ -3092,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="BK9" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL9" s="14">
         <v>0</v>
@@ -3138,11 +3128,11 @@
       <c r="F10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="14">
         <v>1</v>
       </c>
@@ -3164,7 +3154,7 @@
       <c r="P10" s="15">
         <v>0</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="15">
         <v>0</v>
       </c>
       <c r="R10" s="14">
@@ -3299,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="BK10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL10" s="14">
         <v>0</v>
@@ -3345,11 +3335,11 @@
       <c r="F11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="14">
         <v>1</v>
       </c>
@@ -3371,7 +3361,7 @@
       <c r="P11" s="15">
         <v>0</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="15">
         <v>0</v>
       </c>
       <c r="R11" s="14">
@@ -3506,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="BK11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL11" s="14">
         <v>0</v>
@@ -3537,13 +3527,13 @@
       <c r="A12" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>88</v>
       </c>
       <c r="C12" s="12">
         <v>9</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -3555,11 +3545,11 @@
       <c r="G12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I12" s="17"/>
+      <c r="I12" s="16"/>
       <c r="J12" s="3">
         <v>0</v>
       </c>
@@ -3584,7 +3574,7 @@
       <c r="Q12" s="3">
         <v>1</v>
       </c>
-      <c r="R12" s="19" t="s">
+      <c r="R12" s="18" t="s">
         <v>88</v>
       </c>
       <c r="S12" s="14">
@@ -3734,16 +3724,16 @@
       <c r="D13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>95</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="17">
-        <v>1</v>
-      </c>
-      <c r="I13" s="17"/>
+      <c r="H13" s="16">
+        <v>1</v>
+      </c>
+      <c r="I13" s="16"/>
       <c r="J13" s="3">
         <v>0</v>
       </c>
@@ -3768,7 +3758,7 @@
       <c r="Q13" s="3">
         <v>1</v>
       </c>
-      <c r="R13" s="19">
+      <c r="R13" s="18">
         <v>1</v>
       </c>
       <c r="S13" s="3">
@@ -3780,10 +3770,10 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-      <c r="V13" s="19">
-        <v>0</v>
-      </c>
-      <c r="W13" s="19">
+      <c r="V13" s="18">
+        <v>0</v>
+      </c>
+      <c r="W13" s="18">
         <v>1</v>
       </c>
       <c r="Y13" s="3">
@@ -3936,16 +3926,16 @@
       <c r="D14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>95</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="16">
         <v>2</v>
       </c>
-      <c r="I14" s="17"/>
+      <c r="I14" s="16"/>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -3970,7 +3960,7 @@
       <c r="Q14" s="3">
         <v>1</v>
       </c>
-      <c r="R14" s="19">
+      <c r="R14" s="18">
         <v>1</v>
       </c>
       <c r="S14" s="3">
@@ -3982,10 +3972,10 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="19">
-        <v>0</v>
-      </c>
-      <c r="W14" s="19">
+      <c r="V14" s="18">
+        <v>0</v>
+      </c>
+      <c r="W14" s="18">
         <v>1</v>
       </c>
       <c r="Y14" s="3">
@@ -4147,10 +4137,10 @@
       <c r="G15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="17">
-        <v>1</v>
-      </c>
-      <c r="I15" s="17"/>
+      <c r="H15" s="16">
+        <v>1</v>
+      </c>
+      <c r="I15" s="16"/>
       <c r="J15" s="3">
         <v>0</v>
       </c>
@@ -4175,7 +4165,7 @@
       <c r="Q15" s="3">
         <v>1</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="19">
         <v>1</v>
       </c>
       <c r="S15" s="3">
@@ -4187,10 +4177,10 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="20">
-        <v>0</v>
-      </c>
-      <c r="W15" s="20">
+      <c r="V15" s="19">
+        <v>0</v>
+      </c>
+      <c r="W15" s="19">
         <v>1</v>
       </c>
       <c r="Y15" s="3">
@@ -4352,10 +4342,10 @@
       <c r="G16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <v>3</v>
       </c>
-      <c r="I16" s="17"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="3">
         <v>0</v>
       </c>
@@ -4380,7 +4370,7 @@
       <c r="Q16" s="3">
         <v>1</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="19">
         <v>1</v>
       </c>
       <c r="S16" s="3">
@@ -4392,10 +4382,10 @@
       <c r="U16" s="3">
         <v>0</v>
       </c>
-      <c r="V16" s="20">
-        <v>0</v>
-      </c>
-      <c r="W16" s="20">
+      <c r="V16" s="19">
+        <v>0</v>
+      </c>
+      <c r="W16" s="19">
         <v>1</v>
       </c>
       <c r="Y16" s="3">
@@ -4557,10 +4547,10 @@
       <c r="G17" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="16">
         <v>2</v>
       </c>
-      <c r="I17" s="17"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -4759,10 +4749,10 @@
       <c r="F18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="17">
-        <v>1</v>
-      </c>
-      <c r="I18" s="17"/>
+      <c r="H18" s="16">
+        <v>1</v>
+      </c>
+      <c r="I18" s="16"/>
       <c r="J18" s="3">
         <v>1</v>
       </c>
@@ -4790,19 +4780,19 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-      <c r="S18" s="20">
-        <v>0</v>
-      </c>
-      <c r="T18" s="20">
-        <v>0</v>
-      </c>
-      <c r="U18" s="20">
-        <v>0</v>
-      </c>
-      <c r="V18" s="20">
-        <v>0</v>
-      </c>
-      <c r="W18" s="20">
+      <c r="S18" s="19">
+        <v>0</v>
+      </c>
+      <c r="T18" s="19">
+        <v>0</v>
+      </c>
+      <c r="U18" s="19">
+        <v>0</v>
+      </c>
+      <c r="V18" s="19">
+        <v>0</v>
+      </c>
+      <c r="W18" s="19">
         <v>0</v>
       </c>
       <c r="Y18" s="3">
@@ -4964,10 +4954,10 @@
       <c r="G19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="16">
         <v>3</v>
       </c>
-      <c r="I19" s="17"/>
+      <c r="I19" s="16"/>
       <c r="J19" s="3">
         <v>0</v>
       </c>
@@ -5169,10 +5159,10 @@
       <c r="G20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="16">
         <v>2</v>
       </c>
-      <c r="I20" s="17"/>
+      <c r="I20" s="16"/>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -5355,7 +5345,7 @@
       </c>
     </row>
     <row r="21" spans="1:71">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>112</v>
       </c>
       <c r="B21" s="11"/>
@@ -5374,10 +5364,10 @@
       <c r="G21" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="16">
         <v>2</v>
       </c>
-      <c r="I21" s="17"/>
+      <c r="I21" s="16"/>
       <c r="J21" s="3">
         <v>0</v>
       </c>
@@ -5576,10 +5566,10 @@
       <c r="F22" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="24">
-        <v>1</v>
-      </c>
-      <c r="I22" s="24"/>
+      <c r="H22" s="23">
+        <v>1</v>
+      </c>
+      <c r="I22" s="23"/>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -5762,7 +5752,7 @@
       </c>
     </row>
     <row r="23" spans="1:71">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>117</v>
       </c>
       <c r="C23" s="11">
@@ -5777,10 +5767,10 @@
       <c r="F23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="25">
-        <v>1</v>
-      </c>
-      <c r="I23" s="25"/>
+      <c r="H23" s="24">
+        <v>1</v>
+      </c>
+      <c r="I23" s="24"/>
       <c r="J23" s="3">
         <v>1</v>
       </c>
@@ -5963,7 +5953,7 @@
       </c>
     </row>
     <row r="24" spans="1:71">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>118</v>
       </c>
       <c r="C24" s="11">
@@ -5981,10 +5971,10 @@
       <c r="G24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="16">
         <v>5</v>
       </c>
-      <c r="I24" s="17"/>
+      <c r="I24" s="16"/>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -6167,7 +6157,7 @@
       </c>
     </row>
     <row r="25" spans="1:71">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>120</v>
       </c>
       <c r="C25" s="11">
@@ -6185,10 +6175,10 @@
       <c r="G25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="16">
         <v>5</v>
       </c>
-      <c r="I25" s="17"/>
+      <c r="I25" s="16"/>
       <c r="J25" s="3">
         <v>0</v>
       </c>
@@ -6371,7 +6361,7 @@
       </c>
     </row>
     <row r="26" spans="1:71">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="11">
@@ -6389,10 +6379,10 @@
       <c r="G26" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H26" s="17">
-        <v>1</v>
-      </c>
-      <c r="I26" s="17"/>
+      <c r="H26" s="16">
+        <v>1</v>
+      </c>
+      <c r="I26" s="16"/>
       <c r="J26" s="3">
         <v>1</v>
       </c>
@@ -6575,7 +6565,7 @@
       </c>
     </row>
     <row r="27" spans="1:71">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>126</v>
       </c>
       <c r="C27" s="11">
@@ -6593,10 +6583,10 @@
       <c r="G27" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="17">
-        <v>1</v>
-      </c>
-      <c r="I27" s="17"/>
+      <c r="H27" s="16">
+        <v>1</v>
+      </c>
+      <c r="I27" s="16"/>
       <c r="J27" s="3">
         <v>1</v>
       </c>
@@ -6779,7 +6769,7 @@
       </c>
     </row>
     <row r="28" spans="1:71">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C28" s="11">
@@ -6797,10 +6787,10 @@
       <c r="G28" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H28" s="17">
-        <v>1</v>
-      </c>
-      <c r="I28" s="17"/>
+      <c r="H28" s="16">
+        <v>1</v>
+      </c>
+      <c r="I28" s="16"/>
       <c r="J28" s="3">
         <v>1</v>
       </c>
@@ -7001,10 +6991,10 @@
       <c r="G29" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H29" s="17">
-        <v>1</v>
-      </c>
-      <c r="I29" s="17"/>
+      <c r="H29" s="16">
+        <v>1</v>
+      </c>
+      <c r="I29" s="16"/>
       <c r="J29" s="3">
         <v>1</v>
       </c>
@@ -7205,10 +7195,10 @@
       <c r="G30" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="16">
         <v>2</v>
       </c>
-      <c r="I30" s="17"/>
+      <c r="I30" s="16"/>
       <c r="J30" s="3">
         <v>1</v>
       </c>
@@ -7409,10 +7399,10 @@
       <c r="G31" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="16">
         <v>2</v>
       </c>
-      <c r="I31" s="17"/>
+      <c r="I31" s="16"/>
       <c r="J31" s="3">
         <v>1</v>
       </c>
@@ -7613,10 +7603,10 @@
       <c r="G32" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="17">
-        <v>1</v>
-      </c>
-      <c r="I32" s="17"/>
+      <c r="H32" s="16">
+        <v>1</v>
+      </c>
+      <c r="I32" s="16"/>
       <c r="J32" s="3">
         <v>1</v>
       </c>
@@ -7817,10 +7807,10 @@
       <c r="G33" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H33" s="17">
-        <v>1</v>
-      </c>
-      <c r="I33" s="17"/>
+      <c r="H33" s="16">
+        <v>1</v>
+      </c>
+      <c r="I33" s="16"/>
       <c r="J33" s="3">
         <v>1</v>
       </c>
@@ -8018,10 +8008,10 @@
       <c r="G34" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="16">
         <v>3</v>
       </c>
-      <c r="I34" s="17"/>
+      <c r="I34" s="16"/>
       <c r="J34" s="3">
         <v>0</v>
       </c>
@@ -8219,10 +8209,10 @@
       <c r="G35" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="16">
         <v>2</v>
       </c>
-      <c r="I35" s="17"/>
+      <c r="I35" s="16"/>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -8420,10 +8410,10 @@
       <c r="G36" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="23">
         <v>6</v>
       </c>
-      <c r="I36" s="24"/>
+      <c r="I36" s="23"/>
       <c r="J36" s="3">
         <v>1</v>
       </c>
@@ -8578,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="BK36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL36" s="3">
         <v>0</v>
@@ -8621,10 +8611,10 @@
       <c r="G37" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H37" s="28">
+      <c r="H37" s="26">
         <v>5</v>
       </c>
-      <c r="I37" s="28"/>
+      <c r="I37" s="26"/>
       <c r="J37" s="3">
         <v>1</v>
       </c>
@@ -8779,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="BK37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL37" s="3">
         <v>0</v>
@@ -8822,10 +8812,10 @@
       <c r="G38" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="26">
         <v>8</v>
       </c>
-      <c r="I38" s="28"/>
+      <c r="I38" s="26"/>
       <c r="J38" s="3">
         <v>1</v>
       </c>
@@ -9026,10 +9016,10 @@
       <c r="G39" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H39" s="26">
         <v>7</v>
       </c>
-      <c r="I39" s="28"/>
+      <c r="I39" s="26"/>
       <c r="J39" s="3">
         <v>1</v>
       </c>
@@ -9230,10 +9220,10 @@
       <c r="G40" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="26">
         <v>7</v>
       </c>
-      <c r="I40" s="28"/>
+      <c r="I40" s="26"/>
       <c r="J40" s="3">
         <v>1</v>
       </c>
@@ -9434,10 +9424,10 @@
       <c r="G41" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H41" s="26">
         <v>6</v>
       </c>
-      <c r="I41" s="28"/>
+      <c r="I41" s="26"/>
       <c r="J41" s="3">
         <v>1</v>
       </c>
@@ -9638,10 +9628,10 @@
       <c r="G42" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="27">
         <v>9</v>
       </c>
-      <c r="I42" s="29"/>
+      <c r="I42" s="27"/>
       <c r="J42" s="3">
         <v>1</v>
       </c>
@@ -9842,10 +9832,10 @@
       <c r="G43" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H43" s="30">
+      <c r="H43" s="28">
         <v>7</v>
       </c>
-      <c r="I43" s="30"/>
+      <c r="I43" s="28"/>
       <c r="J43" s="3">
         <v>1</v>
       </c>
@@ -10046,10 +10036,10 @@
       <c r="G44" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H44" s="30">
+      <c r="H44" s="28">
         <v>8</v>
       </c>
-      <c r="I44" s="30"/>
+      <c r="I44" s="28"/>
       <c r="J44" s="3">
         <v>1</v>
       </c>
@@ -10250,10 +10240,10 @@
       <c r="G45" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H45" s="31">
+      <c r="H45" s="29">
         <v>8</v>
       </c>
-      <c r="I45" s="31"/>
+      <c r="I45" s="29"/>
       <c r="J45" s="3">
         <v>1</v>
       </c>
@@ -10454,10 +10444,10 @@
       <c r="G46" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H46" s="32">
+      <c r="H46" s="30">
         <v>3</v>
       </c>
-      <c r="I46" s="32"/>
+      <c r="I46" s="30"/>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -10658,10 +10648,10 @@
       <c r="G47" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H47" s="32">
+      <c r="H47" s="30">
         <v>3</v>
       </c>
-      <c r="I47" s="32"/>
+      <c r="I47" s="30"/>
       <c r="J47" s="3">
         <v>0</v>
       </c>

--- a/P3TOME_MAIN_TABLE.xlsx
+++ b/P3TOME_MAIN_TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8568\Documents\GitHub\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEEAEC4-4918-47FD-8968-859DAC3ABDEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A9AF96-8338-475E-AE56-101763727563}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AE33428-D182-42D5-AFDE-FE4D4D8A2EF5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="156">
   <si>
     <r>
       <rPr>
@@ -243,9 +243,6 @@
     <t xml:space="preserve">Perform Initial countback </t>
   </si>
   <si>
-    <t>Scan before Sterile Compouding</t>
-  </si>
-  <si>
     <t>Connect CTSD</t>
   </si>
   <si>
@@ -568,6 +565,21 @@
   </si>
   <si>
     <t xml:space="preserve">Omnicell Controlled Substance Manager </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filled and Labeled Injectable Syringe in Hazard Delivery Bag - Intrathecal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scan to confirm correct drug product vials </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attach filter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inject drug product into solution in syringe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scan before Sterile Compouding &amp; place in sterile compounding area </t>
   </si>
 </sst>
 </file>
@@ -684,7 +696,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1024,9 +1035,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1041,6 +1049,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1072,7 +1083,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1389,11 +1400,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E120A15-25A9-4B1F-A880-19C04E670047}">
-  <dimension ref="A1:BS47"/>
+  <dimension ref="A1:BV48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BH26" sqref="BH26"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL4" sqref="AL4:AL47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="18"/>
@@ -1401,7 +1412,7 @@
     <col min="1" max="1" width="39.21875" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="73.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="54.77734375" style="3" customWidth="1"/>
     <col min="7" max="7" width="42.21875" style="3" customWidth="1"/>
@@ -1422,43 +1433,44 @@
     <col min="22" max="22" width="31.109375" style="3" customWidth="1"/>
     <col min="23" max="23" width="31.44140625" style="3" customWidth="1"/>
     <col min="24" max="24" width="27.5546875" style="3" customWidth="1"/>
-    <col min="25" max="29" width="25.77734375" style="3" customWidth="1"/>
-    <col min="30" max="30" width="39.44140625" style="3" customWidth="1"/>
-    <col min="31" max="31" width="36.21875" style="3" customWidth="1"/>
-    <col min="32" max="32" width="21.6640625" style="3" customWidth="1"/>
-    <col min="33" max="33" width="21.88671875" style="3" customWidth="1"/>
-    <col min="34" max="34" width="49.6640625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="39.77734375" style="3" customWidth="1"/>
-    <col min="36" max="36" width="44.6640625" style="3" customWidth="1"/>
-    <col min="37" max="37" width="32.21875" style="3" customWidth="1"/>
-    <col min="38" max="38" width="55" style="3" customWidth="1"/>
-    <col min="39" max="39" width="57.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="36.5546875" style="3" customWidth="1"/>
-    <col min="41" max="41" width="36.44140625" style="3" customWidth="1"/>
-    <col min="42" max="42" width="59.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="27" style="3" customWidth="1"/>
-    <col min="44" max="47" width="60.5546875" style="3" customWidth="1"/>
-    <col min="48" max="48" width="47.33203125" style="3" customWidth="1"/>
-    <col min="49" max="49" width="35.88671875" style="3" customWidth="1"/>
-    <col min="50" max="50" width="40.6640625" style="3" customWidth="1"/>
-    <col min="51" max="54" width="23.44140625" style="3" customWidth="1"/>
-    <col min="55" max="57" width="14.109375" style="3" customWidth="1"/>
-    <col min="58" max="58" width="21.6640625" style="3" customWidth="1"/>
-    <col min="59" max="59" width="22.5546875" style="3" customWidth="1"/>
-    <col min="60" max="60" width="25" style="3" customWidth="1"/>
-    <col min="61" max="61" width="12" style="3"/>
-    <col min="62" max="62" width="14.6640625" style="3" customWidth="1"/>
-    <col min="63" max="63" width="12" style="3"/>
-    <col min="64" max="64" width="14" style="3" customWidth="1"/>
-    <col min="65" max="65" width="13.6640625" style="3" customWidth="1"/>
-    <col min="66" max="66" width="17.33203125" style="3" customWidth="1"/>
-    <col min="67" max="68" width="12" style="3"/>
-    <col min="69" max="70" width="16.44140625" style="3" customWidth="1"/>
-    <col min="71" max="71" width="12" style="3" customWidth="1"/>
-    <col min="72" max="16384" width="12" style="3"/>
+    <col min="25" max="30" width="25.77734375" style="3" customWidth="1"/>
+    <col min="31" max="31" width="39.44140625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="36.21875" style="3" customWidth="1"/>
+    <col min="33" max="33" width="21.6640625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="21.88671875" style="3" customWidth="1"/>
+    <col min="35" max="35" width="49.6640625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="39.77734375" style="3" customWidth="1"/>
+    <col min="37" max="38" width="30.44140625" style="3" customWidth="1"/>
+    <col min="39" max="39" width="44.6640625" style="3" customWidth="1"/>
+    <col min="40" max="40" width="32.21875" style="3" customWidth="1"/>
+    <col min="41" max="41" width="55" style="3" customWidth="1"/>
+    <col min="42" max="42" width="57.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="36.5546875" style="3" customWidth="1"/>
+    <col min="44" max="44" width="36.44140625" style="3" customWidth="1"/>
+    <col min="45" max="45" width="59.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="27" style="3" customWidth="1"/>
+    <col min="47" max="50" width="60.5546875" style="3" customWidth="1"/>
+    <col min="51" max="51" width="47.33203125" style="3" customWidth="1"/>
+    <col min="52" max="52" width="35.88671875" style="3" customWidth="1"/>
+    <col min="53" max="53" width="40.6640625" style="3" customWidth="1"/>
+    <col min="54" max="57" width="23.44140625" style="3" customWidth="1"/>
+    <col min="58" max="60" width="14.109375" style="3" customWidth="1"/>
+    <col min="61" max="61" width="21.6640625" style="3" customWidth="1"/>
+    <col min="62" max="62" width="22.5546875" style="3" customWidth="1"/>
+    <col min="63" max="63" width="25" style="3" customWidth="1"/>
+    <col min="64" max="64" width="12" style="3"/>
+    <col min="65" max="65" width="14.6640625" style="3" customWidth="1"/>
+    <col min="66" max="66" width="12" style="3"/>
+    <col min="67" max="67" width="14" style="3" customWidth="1"/>
+    <col min="68" max="68" width="13.6640625" style="3" customWidth="1"/>
+    <col min="69" max="69" width="17.33203125" style="3" customWidth="1"/>
+    <col min="70" max="71" width="12" style="3"/>
+    <col min="72" max="73" width="16.44140625" style="3" customWidth="1"/>
+    <col min="74" max="74" width="12" style="3" customWidth="1"/>
+    <col min="75" max="16384" width="12" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="72.599999999999994" thickBot="1">
+    <row r="1" spans="1:74" ht="72.599999999999994" thickBot="1">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1517,59 +1529,62 @@
       <c r="AZ1" s="1"/>
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="BE1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BV1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BJ1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BK1" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:71">
+    <row r="2" spans="1:74">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -1624,22 +1639,22 @@
       <c r="AP2" s="31"/>
       <c r="AQ2" s="31"/>
       <c r="AR2" s="31"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
       <c r="AV2" s="4"/>
       <c r="AW2" s="4"/>
       <c r="AX2" s="4"/>
       <c r="AY2" s="4"/>
-      <c r="AZ2" s="22"/>
-      <c r="BA2" s="22"/>
-      <c r="BB2" s="22"/>
-      <c r="BC2" s="32" t="s">
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="22"/>
+      <c r="BD2" s="22"/>
+      <c r="BE2" s="22"/>
+      <c r="BF2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="BD2" s="32"/>
-      <c r="BE2" s="32"/>
-      <c r="BF2" s="32"/>
       <c r="BG2" s="32"/>
       <c r="BH2" s="32"/>
       <c r="BI2" s="32"/>
@@ -1653,8 +1668,11 @@
       <c r="BQ2" s="32"/>
       <c r="BR2" s="32"/>
       <c r="BS2" s="32"/>
+      <c r="BT2" s="32"/>
+      <c r="BU2" s="32"/>
+      <c r="BV2" s="32"/>
     </row>
-    <row r="3" spans="1:71" s="14" customFormat="1" ht="90">
+    <row r="3" spans="1:74" s="14" customFormat="1" ht="90">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1729,165 +1747,174 @@
         <v>39</v>
       </c>
       <c r="Z3" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AC3" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF3" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="AC3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AG3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AE3" s="25" t="s">
+      <c r="AH3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR3" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="AF3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM3" s="8" t="s">
+      <c r="AS3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AN3" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO3" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP3" s="8" t="s">
+      <c r="AT3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AQ3" s="9" t="s">
+      <c r="AU3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AR3" s="8" t="s">
+      <c r="AV3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AS3" s="8" t="s">
+      <c r="AW3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AT3" s="9" t="s">
+      <c r="AX3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AU3" s="9" t="s">
+      <c r="AY3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AV3" s="9" t="s">
+      <c r="AZ3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AW3" s="9" t="s">
+      <c r="BA3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AX3" s="9" t="s">
+      <c r="BB3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AY3" s="9" t="s">
+      <c r="BC3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AZ3" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="BA3" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB3" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="BC3" s="9" t="s">
+      <c r="BG3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BD3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BE3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF3" s="8" t="s">
+      <c r="BJ3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="BG3" s="9" t="s">
+      <c r="BK3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="BH3" s="9" t="s">
+      <c r="BL3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="BI3" s="9" t="s">
+      <c r="BM3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="BJ3" s="9" t="s">
+      <c r="BN3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="BK3" s="9" t="s">
+      <c r="BO3" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="BL3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="BM3" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="BO3" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="BP3" s="9" t="s">
         <v>69</v>
       </c>
       <c r="BQ3" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BR3" s="9" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="BS3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="BT3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="BV3" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:74">
+      <c r="A4" s="10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:71">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="H4" s="13">
-        <f>SUM(Y4:AR4)</f>
+        <f>SUM(Y4:AU4)</f>
         <v>5</v>
       </c>
       <c r="I4" s="13"/>
@@ -1950,9 +1977,11 @@
         <v>0</v>
       </c>
       <c r="AD4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>1</v>
+      </c>
       <c r="AF4" s="14">
         <v>0</v>
       </c>
@@ -1960,28 +1989,28 @@
         <v>0</v>
       </c>
       <c r="AH4" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="14">
         <v>0</v>
       </c>
       <c r="AL4" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4" s="14">
         <v>0</v>
       </c>
       <c r="AO4" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4" s="14">
         <v>0</v>
@@ -2023,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="BC4" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="14">
         <v>0</v>
@@ -2035,16 +2064,16 @@
         <v>1</v>
       </c>
       <c r="BG4" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ4" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK4" s="14">
         <v>1</v>
@@ -2056,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO4" s="14">
         <v>0</v>
@@ -2073,28 +2102,37 @@
       <c r="BS4" s="14">
         <v>0</v>
       </c>
+      <c r="BT4" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:71">
+    <row r="5" spans="1:74">
       <c r="A5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="H5" s="16">
-        <f>SUM(Y5:AR5)</f>
+        <f>SUM(Y5:AU5)</f>
         <v>6</v>
       </c>
       <c r="I5" s="16"/>
@@ -2157,9 +2195,11 @@
         <v>0</v>
       </c>
       <c r="AD5" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="14">
+        <v>1</v>
+      </c>
       <c r="AF5" s="14">
         <v>0</v>
       </c>
@@ -2167,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="14">
         <v>1</v>
@@ -2179,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="AL5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5" s="14">
         <v>0</v>
       </c>
       <c r="AO5" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="14">
         <v>0</v>
@@ -2230,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="BC5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="14">
         <v>0</v>
@@ -2242,16 +2282,16 @@
         <v>1</v>
       </c>
       <c r="BG5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ5" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5" s="14">
         <v>1</v>
@@ -2263,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="BN5" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO5" s="14">
         <v>0</v>
@@ -2280,28 +2320,37 @@
       <c r="BS5" s="14">
         <v>0</v>
       </c>
+      <c r="BT5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:71">
+    <row r="6" spans="1:74">
       <c r="A6" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="12">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="H6" s="16">
-        <f>SUM(Y6:AR6)</f>
+        <f>SUM(Y6:AU6)</f>
         <v>6</v>
       </c>
       <c r="I6" s="16"/>
@@ -2364,38 +2413,40 @@
         <v>0</v>
       </c>
       <c r="AD6" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>1</v>
+      </c>
       <c r="AF6" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="14">
         <v>0</v>
       </c>
       <c r="AL6" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6" s="14">
         <v>0</v>
       </c>
       <c r="AO6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6" s="14">
         <v>0</v>
@@ -2437,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="BC6" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="14">
         <v>0</v>
@@ -2449,16 +2500,16 @@
         <v>1</v>
       </c>
       <c r="BG6" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK6" s="14">
         <v>1</v>
@@ -2470,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="BN6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO6" s="14">
         <v>0</v>
@@ -2487,28 +2538,37 @@
       <c r="BS6" s="14">
         <v>0</v>
       </c>
+      <c r="BT6" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:71">
+    <row r="7" spans="1:74">
       <c r="A7" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="12">
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="H7" s="16">
-        <f>SUM(Y7:AR7)</f>
+        <f>SUM(Y7:AU7)</f>
         <v>7</v>
       </c>
       <c r="I7" s="16"/>
@@ -2571,17 +2631,19 @@
         <v>0</v>
       </c>
       <c r="AD7" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>1</v>
+      </c>
       <c r="AF7" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="14">
         <v>1</v>
@@ -2593,16 +2655,16 @@
         <v>0</v>
       </c>
       <c r="AL7" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7" s="14">
         <v>0</v>
       </c>
       <c r="AO7" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" s="14">
         <v>0</v>
@@ -2644,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="BC7" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="14">
         <v>0</v>
@@ -2656,16 +2718,16 @@
         <v>1</v>
       </c>
       <c r="BG7" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH7" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ7" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK7" s="14">
         <v>1</v>
@@ -2677,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="BN7" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO7" s="14">
         <v>0</v>
@@ -2694,28 +2756,37 @@
       <c r="BS7" s="14">
         <v>0</v>
       </c>
+      <c r="BT7" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:71">
+    <row r="8" spans="1:74">
       <c r="A8" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="12">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="H8" s="16">
-        <f t="shared" ref="H8:H12" si="0">SUM(Y8:AR8)</f>
+        <f t="shared" ref="H8:H12" si="0">SUM(Y8:AU8)</f>
         <v>7</v>
       </c>
       <c r="I8" s="16"/>
@@ -2778,11 +2849,13 @@
         <v>0</v>
       </c>
       <c r="AD8" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="14">
+        <v>1</v>
+      </c>
       <c r="AF8" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="14">
         <v>1</v>
@@ -2791,25 +2864,25 @@
         <v>1</v>
       </c>
       <c r="AI8" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="14">
         <v>0</v>
       </c>
       <c r="AL8" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8" s="14">
         <v>0</v>
       </c>
       <c r="AO8" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="14">
         <v>0</v>
@@ -2851,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="BC8" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="14">
         <v>0</v>
@@ -2863,16 +2936,16 @@
         <v>1</v>
       </c>
       <c r="BG8" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ8" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK8" s="14">
         <v>1</v>
@@ -2884,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="BN8" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO8" s="14">
         <v>0</v>
@@ -2901,25 +2974,34 @@
       <c r="BS8" s="14">
         <v>0</v>
       </c>
+      <c r="BT8" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:71">
+    <row r="9" spans="1:74">
       <c r="A9" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="12">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="0"/>
@@ -2985,11 +3067,13 @@
         <v>0</v>
       </c>
       <c r="AD9" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="14">
+        <v>1</v>
+      </c>
       <c r="AF9" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="14">
         <v>1</v>
@@ -3007,16 +3091,16 @@
         <v>0</v>
       </c>
       <c r="AL9" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="14">
         <v>0</v>
       </c>
       <c r="AO9" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" s="14">
         <v>0</v>
@@ -3058,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="BC9" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="14">
         <v>0</v>
@@ -3070,16 +3154,16 @@
         <v>1</v>
       </c>
       <c r="BG9" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ9" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK9" s="14">
         <v>1</v>
@@ -3091,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="BN9" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO9" s="14">
         <v>0</v>
@@ -3108,25 +3192,34 @@
       <c r="BS9" s="14">
         <v>0</v>
       </c>
+      <c r="BT9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:71">
+    <row r="10" spans="1:74">
       <c r="A10" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="12">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="H10" s="16">
         <f t="shared" si="0"/>
@@ -3192,11 +3285,13 @@
         <v>0</v>
       </c>
       <c r="AD10" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="14">
+        <v>1</v>
+      </c>
       <c r="AF10" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="14">
         <v>1</v>
@@ -3205,25 +3300,25 @@
         <v>1</v>
       </c>
       <c r="AI10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="14">
         <v>0</v>
@@ -3265,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="BC10" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="14">
         <v>0</v>
@@ -3277,16 +3372,16 @@
         <v>1</v>
       </c>
       <c r="BG10" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK10" s="14">
         <v>1</v>
@@ -3298,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="BN10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO10" s="14">
         <v>0</v>
@@ -3315,25 +3410,34 @@
       <c r="BS10" s="14">
         <v>0</v>
       </c>
+      <c r="BT10" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:71">
+    <row r="11" spans="1:74">
       <c r="A11" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="12">
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="H11" s="16">
         <f t="shared" si="0"/>
@@ -3399,11 +3503,13 @@
         <v>0</v>
       </c>
       <c r="AD11" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="14">
+        <v>1</v>
+      </c>
       <c r="AF11" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="14">
         <v>1</v>
@@ -3418,19 +3524,19 @@
         <v>1</v>
       </c>
       <c r="AK11" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11" s="14">
         <v>0</v>
@@ -3472,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="BC11" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="14">
         <v>0</v>
@@ -3484,16 +3590,16 @@
         <v>1</v>
       </c>
       <c r="BG11" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH11" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK11" s="14">
         <v>1</v>
@@ -3505,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="BN11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO11" s="14">
         <v>0</v>
@@ -3522,28 +3628,37 @@
       <c r="BS11" s="14">
         <v>0</v>
       </c>
+      <c r="BT11" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV11" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:71">
+    <row r="12" spans="1:74">
       <c r="A12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>88</v>
       </c>
       <c r="C12" s="12">
         <v>9</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="H12" s="16">
         <f t="shared" si="0"/>
@@ -3575,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S12" s="14">
         <v>0</v>
@@ -3607,10 +3722,13 @@
       <c r="AC12" s="14">
         <v>0</v>
       </c>
-      <c r="AD12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="3">
+      <c r="AD12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="14">
         <v>0</v>
       </c>
       <c r="AG12" s="3">
@@ -3625,19 +3743,19 @@
       <c r="AJ12" s="3">
         <v>0</v>
       </c>
-      <c r="AK12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="14">
+      <c r="AK12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="3">
         <v>0</v>
       </c>
       <c r="AP12" s="14">
@@ -3646,8 +3764,8 @@
       <c r="AQ12" s="14">
         <v>0</v>
       </c>
-      <c r="AR12" s="3">
-        <v>1</v>
+      <c r="AR12" s="14">
+        <v>0</v>
       </c>
       <c r="AS12" s="14">
         <v>0</v>
@@ -3655,8 +3773,8 @@
       <c r="AT12" s="14">
         <v>0</v>
       </c>
-      <c r="AU12" s="14">
-        <v>0</v>
+      <c r="AU12" s="3">
+        <v>1</v>
       </c>
       <c r="AV12" s="14">
         <v>0</v>
@@ -3679,19 +3797,19 @@
       <c r="BB12" s="14">
         <v>0</v>
       </c>
+      <c r="BC12" s="14">
+        <v>0</v>
+      </c>
       <c r="BD12" s="14">
         <v>0</v>
       </c>
       <c r="BE12" s="14">
         <v>0</v>
       </c>
-      <c r="BK12" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL12" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM12" s="14">
+      <c r="BG12" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="14">
         <v>0</v>
       </c>
       <c r="BN12" s="14">
@@ -3712,23 +3830,32 @@
       <c r="BS12" s="14">
         <v>0</v>
       </c>
+      <c r="BT12" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU12" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV12" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:71">
+    <row r="13" spans="1:74">
       <c r="A13" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="12">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="F13" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="H13" s="16">
         <v>1</v>
@@ -3791,10 +3918,13 @@
       <c r="AC13" s="14">
         <v>0</v>
       </c>
-      <c r="AD13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="3">
+      <c r="AD13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="14">
         <v>0</v>
       </c>
       <c r="AG13" s="3">
@@ -3809,19 +3939,19 @@
       <c r="AJ13" s="3">
         <v>0</v>
       </c>
-      <c r="AK13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="14">
+      <c r="AK13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="3">
         <v>0</v>
       </c>
       <c r="AP13" s="14">
@@ -3830,14 +3960,14 @@
       <c r="AQ13" s="14">
         <v>0</v>
       </c>
-      <c r="AR13" s="3">
+      <c r="AR13" s="14">
         <v>0</v>
       </c>
       <c r="AS13" s="14">
         <v>0</v>
       </c>
-      <c r="AT13" s="3">
-        <v>1</v>
+      <c r="AT13" s="14">
+        <v>0</v>
       </c>
       <c r="AU13" s="3">
         <v>0</v>
@@ -3845,10 +3975,10 @@
       <c r="AV13" s="14">
         <v>0</v>
       </c>
-      <c r="AW13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="14">
+      <c r="AW13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="3">
         <v>0</v>
       </c>
       <c r="AY13" s="14">
@@ -3863,8 +3993,8 @@
       <c r="BB13" s="14">
         <v>0</v>
       </c>
-      <c r="BC13" s="3">
-        <v>1</v>
+      <c r="BC13" s="14">
+        <v>0</v>
       </c>
       <c r="BD13" s="14">
         <v>0</v>
@@ -3873,27 +4003,27 @@
         <v>0</v>
       </c>
       <c r="BF13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="14">
         <v>0</v>
       </c>
       <c r="BI13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ13" s="3">
         <v>0</v>
       </c>
-      <c r="BK13" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL13" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM13" s="14">
+      <c r="BK13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BM13" s="3">
         <v>0</v>
       </c>
       <c r="BN13" s="14">
@@ -3914,23 +4044,32 @@
       <c r="BS13" s="14">
         <v>0</v>
       </c>
+      <c r="BT13" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU13" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV13" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:71">
+    <row r="14" spans="1:74">
       <c r="A14" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="12">
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="F14" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="H14" s="16">
         <v>2</v>
@@ -3993,10 +4132,13 @@
       <c r="AC14" s="14">
         <v>0</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="3">
+      <c r="AD14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="14">
         <v>0</v>
       </c>
       <c r="AG14" s="3">
@@ -4011,19 +4153,19 @@
       <c r="AJ14" s="3">
         <v>0</v>
       </c>
-      <c r="AK14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="14">
+      <c r="AK14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="3">
         <v>0</v>
       </c>
       <c r="AP14" s="14">
@@ -4032,26 +4174,26 @@
       <c r="AQ14" s="14">
         <v>0</v>
       </c>
-      <c r="AR14" s="3">
+      <c r="AR14" s="14">
         <v>0</v>
       </c>
       <c r="AS14" s="14">
         <v>0</v>
       </c>
-      <c r="AT14" s="3">
-        <v>1</v>
+      <c r="AT14" s="14">
+        <v>0</v>
       </c>
       <c r="AU14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="14">
         <v>0</v>
       </c>
-      <c r="AW14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="14">
-        <v>0</v>
+      <c r="AW14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="3">
+        <v>1</v>
       </c>
       <c r="AY14" s="14">
         <v>0</v>
@@ -4065,8 +4207,8 @@
       <c r="BB14" s="14">
         <v>0</v>
       </c>
-      <c r="BC14" s="3">
-        <v>1</v>
+      <c r="BC14" s="14">
+        <v>0</v>
       </c>
       <c r="BD14" s="14">
         <v>0</v>
@@ -4075,27 +4217,27 @@
         <v>0</v>
       </c>
       <c r="BF14" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG14" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH14" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG14" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="14">
         <v>0</v>
       </c>
       <c r="BI14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ14" s="3">
         <v>0</v>
       </c>
-      <c r="BK14" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL14" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM14" s="14">
+      <c r="BK14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="3">
+        <v>1</v>
+      </c>
+      <c r="BM14" s="3">
         <v>0</v>
       </c>
       <c r="BN14" s="14">
@@ -4116,26 +4258,35 @@
       <c r="BS14" s="14">
         <v>0</v>
       </c>
+      <c r="BT14" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU14" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV14" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:71">
+    <row r="15" spans="1:74">
       <c r="A15" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="12">
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="16">
         <v>1</v>
@@ -4198,10 +4349,13 @@
       <c r="AC15" s="14">
         <v>0</v>
       </c>
-      <c r="AD15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="3">
+      <c r="AD15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="14">
         <v>0</v>
       </c>
       <c r="AG15" s="3">
@@ -4216,19 +4370,19 @@
       <c r="AJ15" s="3">
         <v>0</v>
       </c>
-      <c r="AK15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="14">
+      <c r="AK15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="3">
         <v>0</v>
       </c>
       <c r="AP15" s="14">
@@ -4237,25 +4391,25 @@
       <c r="AQ15" s="14">
         <v>0</v>
       </c>
-      <c r="AR15" s="3">
-        <v>1</v>
+      <c r="AR15" s="14">
+        <v>0</v>
       </c>
       <c r="AS15" s="14">
         <v>0</v>
       </c>
-      <c r="AT15" s="3">
+      <c r="AT15" s="14">
         <v>0</v>
       </c>
       <c r="AU15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV15" s="14">
         <v>0</v>
       </c>
-      <c r="AW15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="14">
+      <c r="AW15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="3">
         <v>0</v>
       </c>
       <c r="AY15" s="14">
@@ -4270,7 +4424,7 @@
       <c r="BB15" s="14">
         <v>0</v>
       </c>
-      <c r="BC15" s="3">
+      <c r="BC15" s="14">
         <v>0</v>
       </c>
       <c r="BD15" s="14">
@@ -4282,26 +4436,26 @@
       <c r="BF15" s="3">
         <v>0</v>
       </c>
-      <c r="BG15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH15" s="3">
+      <c r="BG15" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="14">
         <v>0</v>
       </c>
       <c r="BI15" s="3">
         <v>0</v>
       </c>
       <c r="BJ15" s="3">
-        <v>1</v>
-      </c>
-      <c r="BK15" s="14">
-        <v>0</v>
-      </c>
-      <c r="BL15" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM15" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BK15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="3">
+        <v>1</v>
       </c>
       <c r="BN15" s="14">
         <v>0</v>
@@ -4321,26 +4475,35 @@
       <c r="BS15" s="14">
         <v>0</v>
       </c>
+      <c r="BT15" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV15" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:71">
+    <row r="16" spans="1:74">
       <c r="A16" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="12">
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="G16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H16" s="16">
         <v>3</v>
@@ -4391,22 +4554,25 @@
       <c r="Y16" s="3">
         <v>0</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z16" s="14">
         <v>0</v>
       </c>
       <c r="AA16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>1</v>
       </c>
       <c r="AC16" s="14">
         <v>0</v>
       </c>
-      <c r="AD16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="3">
+      <c r="AD16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="14">
         <v>0</v>
       </c>
       <c r="AG16" s="3">
@@ -4421,19 +4587,19 @@
       <c r="AJ16" s="3">
         <v>0</v>
       </c>
-      <c r="AK16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="3">
+      <c r="AK16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="14">
         <v>0</v>
       </c>
       <c r="AM16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="3">
         <v>0</v>
       </c>
       <c r="AP16" s="3">
@@ -4442,13 +4608,13 @@
       <c r="AQ16" s="14">
         <v>0</v>
       </c>
-      <c r="AR16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="3">
+      <c r="AR16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="14">
         <v>0</v>
       </c>
       <c r="AU16" s="3">
@@ -4457,10 +4623,10 @@
       <c r="AV16" s="14">
         <v>0</v>
       </c>
-      <c r="AW16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="14">
+      <c r="AW16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="3">
         <v>0</v>
       </c>
       <c r="AY16" s="14">
@@ -4475,8 +4641,8 @@
       <c r="BB16" s="14">
         <v>0</v>
       </c>
-      <c r="BC16" s="3">
-        <v>1</v>
+      <c r="BC16" s="14">
+        <v>0</v>
       </c>
       <c r="BD16" s="14">
         <v>0</v>
@@ -4485,12 +4651,12 @@
         <v>0</v>
       </c>
       <c r="BF16" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG16" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH16" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="14">
         <v>0</v>
       </c>
       <c r="BI16" s="3">
@@ -4500,16 +4666,16 @@
         <v>0</v>
       </c>
       <c r="BK16" s="3">
-        <v>1</v>
-      </c>
-      <c r="BL16" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM16" s="14">
-        <v>0</v>
-      </c>
-      <c r="BN16" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BL16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN16" s="3">
+        <v>1</v>
       </c>
       <c r="BO16" s="14">
         <v>0</v>
@@ -4526,26 +4692,35 @@
       <c r="BS16" s="14">
         <v>0</v>
       </c>
+      <c r="BT16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU16" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV16" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:71">
+    <row r="17" spans="1:74">
       <c r="A17" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="12">
         <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H17" s="16">
         <v>2</v>
@@ -4596,22 +4771,25 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-      <c r="Z17" s="3">
-        <v>1</v>
+      <c r="Z17" s="14">
+        <v>0</v>
       </c>
       <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="3">
         <v>0</v>
       </c>
       <c r="AC17" s="14">
         <v>0</v>
       </c>
-      <c r="AD17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="3">
+      <c r="AD17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="14">
         <v>0</v>
       </c>
       <c r="AG17" s="3">
@@ -4626,34 +4804,34 @@
       <c r="AJ17" s="3">
         <v>0</v>
       </c>
-      <c r="AK17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="3">
+      <c r="AK17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="14">
         <v>0</v>
       </c>
       <c r="AM17" s="3">
         <v>0</v>
       </c>
-      <c r="AN17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="14">
+      <c r="AN17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="3">
         <v>0</v>
       </c>
       <c r="AP17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="14">
         <v>0</v>
       </c>
-      <c r="AR17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="3">
+      <c r="AR17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="14">
         <v>0</v>
       </c>
       <c r="AU17" s="3">
@@ -4662,10 +4840,10 @@
       <c r="AV17" s="14">
         <v>0</v>
       </c>
-      <c r="AW17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX17" s="14">
+      <c r="AW17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="3">
         <v>0</v>
       </c>
       <c r="AY17" s="14">
@@ -4680,8 +4858,8 @@
       <c r="BB17" s="14">
         <v>0</v>
       </c>
-      <c r="BC17" s="3">
-        <v>1</v>
+      <c r="BC17" s="14">
+        <v>0</v>
       </c>
       <c r="BD17" s="14">
         <v>0</v>
@@ -4690,12 +4868,12 @@
         <v>0</v>
       </c>
       <c r="BF17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG17" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH17" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG17" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="14">
         <v>0</v>
       </c>
       <c r="BI17" s="3">
@@ -4705,16 +4883,16 @@
         <v>0</v>
       </c>
       <c r="BK17" s="3">
-        <v>1</v>
-      </c>
-      <c r="BL17" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM17" s="14">
-        <v>0</v>
-      </c>
-      <c r="BN17" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BL17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="3">
+        <v>1</v>
       </c>
       <c r="BO17" s="14">
         <v>0</v>
@@ -4731,23 +4909,32 @@
       <c r="BS17" s="14">
         <v>0</v>
       </c>
+      <c r="BT17" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV17" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:71">
+    <row r="18" spans="1:74">
       <c r="A18" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="12">
         <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="H18" s="16">
         <v>1</v>
@@ -4798,22 +4985,25 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="14">
         <v>0</v>
       </c>
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-      <c r="AB18" s="14">
+      <c r="AB18" s="3">
         <v>0</v>
       </c>
       <c r="AC18" s="14">
         <v>0</v>
       </c>
-      <c r="AD18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="3">
+      <c r="AD18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="14">
         <v>0</v>
       </c>
       <c r="AG18" s="3">
@@ -4828,19 +5018,19 @@
       <c r="AJ18" s="3">
         <v>0</v>
       </c>
-      <c r="AK18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="3">
+      <c r="AK18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="14">
         <v>0</v>
       </c>
       <c r="AM18" s="3">
         <v>0</v>
       </c>
-      <c r="AN18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="14">
+      <c r="AN18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="3">
         <v>0</v>
       </c>
       <c r="AP18" s="3">
@@ -4849,25 +5039,25 @@
       <c r="AQ18" s="14">
         <v>0</v>
       </c>
-      <c r="AR18" s="3">
+      <c r="AR18" s="14">
         <v>0</v>
       </c>
       <c r="AS18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AT18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="14">
         <v>0</v>
       </c>
       <c r="AU18" s="3">
         <v>0</v>
       </c>
-      <c r="AV18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="14">
+      <c r="AV18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="3">
         <v>0</v>
       </c>
       <c r="AY18" s="14">
@@ -4882,7 +5072,7 @@
       <c r="BB18" s="14">
         <v>0</v>
       </c>
-      <c r="BC18" s="3">
+      <c r="BC18" s="14">
         <v>0</v>
       </c>
       <c r="BD18" s="14">
@@ -4894,28 +5084,28 @@
       <c r="BF18" s="3">
         <v>0</v>
       </c>
-      <c r="BG18" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH18" s="3">
+      <c r="BG18" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="14">
         <v>0</v>
       </c>
       <c r="BI18" s="3">
         <v>0</v>
       </c>
       <c r="BJ18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK18" s="3">
         <v>0</v>
       </c>
-      <c r="BL18" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM18" s="14">
-        <v>0</v>
-      </c>
-      <c r="BN18" s="14">
+      <c r="BL18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="3">
+        <v>1</v>
+      </c>
+      <c r="BN18" s="3">
         <v>0</v>
       </c>
       <c r="BO18" s="14">
@@ -4933,26 +5123,35 @@
       <c r="BS18" s="14">
         <v>0</v>
       </c>
+      <c r="BT18" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV18" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:71">
+    <row r="19" spans="1:74">
       <c r="A19" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="12">
         <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H19" s="16">
         <v>3</v>
@@ -5003,22 +5202,25 @@
       <c r="Y19" s="3">
         <v>0</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="Z19" s="14">
         <v>0</v>
       </c>
       <c r="AA19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>1</v>
       </c>
       <c r="AC19" s="14">
         <v>0</v>
       </c>
-      <c r="AD19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="3">
+      <c r="AD19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="14">
         <v>0</v>
       </c>
       <c r="AG19" s="3">
@@ -5033,19 +5235,19 @@
       <c r="AJ19" s="3">
         <v>0</v>
       </c>
-      <c r="AK19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="3">
+      <c r="AK19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="14">
         <v>0</v>
       </c>
       <c r="AM19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="3">
         <v>0</v>
       </c>
       <c r="AP19" s="3">
@@ -5054,25 +5256,25 @@
       <c r="AQ19" s="14">
         <v>0</v>
       </c>
-      <c r="AR19" s="3">
+      <c r="AR19" s="14">
         <v>0</v>
       </c>
       <c r="AS19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="14">
         <v>0</v>
       </c>
       <c r="AU19" s="3">
         <v>0</v>
       </c>
-      <c r="AV19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX19" s="14">
+      <c r="AV19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="3">
         <v>0</v>
       </c>
       <c r="AY19" s="14">
@@ -5087,8 +5289,8 @@
       <c r="BB19" s="14">
         <v>0</v>
       </c>
-      <c r="BC19" s="3">
-        <v>1</v>
+      <c r="BC19" s="14">
+        <v>0</v>
       </c>
       <c r="BD19" s="14">
         <v>0</v>
@@ -5097,12 +5299,12 @@
         <v>0</v>
       </c>
       <c r="BF19" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG19" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH19" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="14">
         <v>0</v>
       </c>
       <c r="BI19" s="3">
@@ -5112,16 +5314,16 @@
         <v>0</v>
       </c>
       <c r="BK19" s="3">
-        <v>1</v>
-      </c>
-      <c r="BL19" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM19" s="14">
-        <v>0</v>
-      </c>
-      <c r="BN19" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BL19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN19" s="3">
+        <v>1</v>
       </c>
       <c r="BO19" s="14">
         <v>0</v>
@@ -5138,26 +5340,35 @@
       <c r="BS19" s="14">
         <v>0</v>
       </c>
+      <c r="BT19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU19" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV19" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:71">
+    <row r="20" spans="1:74">
       <c r="A20" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="12">
         <v>17</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H20" s="16">
         <v>2</v>
@@ -5208,22 +5419,25 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-      <c r="Z20" s="3">
-        <v>1</v>
+      <c r="Z20" s="14">
+        <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="3">
         <v>0</v>
       </c>
       <c r="AC20" s="14">
         <v>0</v>
       </c>
-      <c r="AD20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="3">
+      <c r="AD20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="14">
         <v>0</v>
       </c>
       <c r="AG20" s="3">
@@ -5238,46 +5452,46 @@
       <c r="AJ20" s="3">
         <v>0</v>
       </c>
-      <c r="AK20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="3">
+      <c r="AK20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="14">
         <v>0</v>
       </c>
       <c r="AM20" s="3">
         <v>0</v>
       </c>
-      <c r="AN20" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="14">
+      <c r="AN20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="3">
         <v>0</v>
       </c>
       <c r="AP20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="14">
         <v>0</v>
       </c>
-      <c r="AR20" s="3">
+      <c r="AR20" s="14">
         <v>0</v>
       </c>
       <c r="AS20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="14">
         <v>0</v>
       </c>
       <c r="AU20" s="3">
         <v>0</v>
       </c>
-      <c r="AV20" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW20" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX20" s="14">
+      <c r="AV20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="3">
         <v>0</v>
       </c>
       <c r="AY20" s="14">
@@ -5292,8 +5506,8 @@
       <c r="BB20" s="14">
         <v>0</v>
       </c>
-      <c r="BC20" s="3">
-        <v>1</v>
+      <c r="BC20" s="14">
+        <v>0</v>
       </c>
       <c r="BD20" s="14">
         <v>0</v>
@@ -5302,12 +5516,12 @@
         <v>0</v>
       </c>
       <c r="BF20" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG20" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH20" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG20" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="14">
         <v>0</v>
       </c>
       <c r="BI20" s="3">
@@ -5317,16 +5531,16 @@
         <v>0</v>
       </c>
       <c r="BK20" s="3">
-        <v>1</v>
-      </c>
-      <c r="BL20" s="14">
-        <v>0</v>
-      </c>
-      <c r="BM20" s="14">
-        <v>0</v>
-      </c>
-      <c r="BN20" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BL20" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="3">
+        <v>1</v>
       </c>
       <c r="BO20" s="14">
         <v>0</v>
@@ -5343,26 +5557,35 @@
       <c r="BS20" s="14">
         <v>0</v>
       </c>
+      <c r="BT20" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU20" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV20" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:71">
+    <row r="21" spans="1:74">
       <c r="A21" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="12">
         <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H21" s="16">
         <v>2</v>
@@ -5413,22 +5636,25 @@
       <c r="Y21" s="3">
         <v>0</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="14">
         <v>0</v>
       </c>
       <c r="AA21" s="3">
         <v>0</v>
       </c>
-      <c r="AB21" s="14">
+      <c r="AB21" s="3">
         <v>0</v>
       </c>
       <c r="AC21" s="14">
         <v>0</v>
       </c>
-      <c r="AD21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="3">
+      <c r="AD21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="14">
         <v>0</v>
       </c>
       <c r="AG21" s="3">
@@ -5443,19 +5669,19 @@
       <c r="AJ21" s="3">
         <v>0</v>
       </c>
-      <c r="AK21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="3">
+      <c r="AK21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="14">
         <v>0</v>
       </c>
       <c r="AM21" s="3">
         <v>0</v>
       </c>
-      <c r="AN21" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="14">
+      <c r="AN21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="3">
         <v>0</v>
       </c>
       <c r="AP21" s="3">
@@ -5464,32 +5690,32 @@
       <c r="AQ21" s="14">
         <v>0</v>
       </c>
-      <c r="AR21" s="3">
+      <c r="AR21" s="14">
         <v>0</v>
       </c>
       <c r="AS21" s="3">
         <v>0</v>
       </c>
-      <c r="AT21" s="3">
+      <c r="AT21" s="14">
         <v>0</v>
       </c>
       <c r="AU21" s="3">
         <v>0</v>
       </c>
       <c r="AV21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX21" s="14">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AX21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="3">
+        <v>1</v>
       </c>
       <c r="BA21" s="14">
         <v>0</v>
@@ -5497,7 +5723,7 @@
       <c r="BB21" s="14">
         <v>0</v>
       </c>
-      <c r="BC21" s="3">
+      <c r="BC21" s="14">
         <v>0</v>
       </c>
       <c r="BD21" s="14">
@@ -5509,32 +5735,32 @@
       <c r="BF21" s="3">
         <v>0</v>
       </c>
-      <c r="BG21" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH21" s="3">
+      <c r="BG21" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="14">
         <v>0</v>
       </c>
       <c r="BI21" s="3">
         <v>0</v>
       </c>
       <c r="BJ21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK21" s="3">
         <v>0</v>
       </c>
       <c r="BL21" s="3">
-        <v>1</v>
-      </c>
-      <c r="BM21" s="14">
-        <v>0</v>
-      </c>
-      <c r="BN21" s="14">
-        <v>0</v>
-      </c>
-      <c r="BO21" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BM21" s="3">
+        <v>1</v>
+      </c>
+      <c r="BN21" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="3">
+        <v>1</v>
       </c>
       <c r="BP21" s="14">
         <v>0</v>
@@ -5548,23 +5774,32 @@
       <c r="BS21" s="14">
         <v>0</v>
       </c>
+      <c r="BT21" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU21" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV21" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:71">
+    <row r="22" spans="1:74">
       <c r="A22" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="12">
         <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="H22" s="23">
         <v>1</v>
@@ -5615,22 +5850,25 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="14">
         <v>0</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-      <c r="AB22" s="14">
+      <c r="AB22" s="3">
         <v>0</v>
       </c>
       <c r="AC22" s="14">
         <v>0</v>
       </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="3">
+      <c r="AD22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="14">
         <v>0</v>
       </c>
       <c r="AG22" s="3">
@@ -5645,19 +5883,19 @@
       <c r="AJ22" s="3">
         <v>0</v>
       </c>
-      <c r="AK22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="3">
+      <c r="AK22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="14">
         <v>0</v>
       </c>
       <c r="AM22" s="3">
         <v>0</v>
       </c>
-      <c r="AN22" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="14">
+      <c r="AN22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="3">
         <v>0</v>
       </c>
       <c r="AP22" s="3">
@@ -5666,13 +5904,13 @@
       <c r="AQ22" s="14">
         <v>0</v>
       </c>
-      <c r="AR22" s="3">
+      <c r="AR22" s="14">
         <v>0</v>
       </c>
       <c r="AS22" s="3">
         <v>0</v>
       </c>
-      <c r="AT22" s="3">
+      <c r="AT22" s="14">
         <v>0</v>
       </c>
       <c r="AU22" s="3">
@@ -5685,22 +5923,22 @@
         <v>0</v>
       </c>
       <c r="AX22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AY22" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA22" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AY22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="3">
+        <v>1</v>
       </c>
       <c r="BB22" s="14">
         <v>0</v>
       </c>
-      <c r="BC22" s="3">
-        <v>1</v>
+      <c r="BC22" s="14">
+        <v>0</v>
       </c>
       <c r="BD22" s="14">
         <v>0</v>
@@ -5709,12 +5947,12 @@
         <v>0</v>
       </c>
       <c r="BF22" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG22" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH22" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG22" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="14">
         <v>0</v>
       </c>
       <c r="BI22" s="3">
@@ -5729,13 +5967,13 @@
       <c r="BL22" s="3">
         <v>0</v>
       </c>
-      <c r="BM22" s="14">
-        <v>0</v>
-      </c>
-      <c r="BN22" s="14">
-        <v>0</v>
-      </c>
-      <c r="BO22" s="14">
+      <c r="BM22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO22" s="3">
         <v>0</v>
       </c>
       <c r="BP22" s="14">
@@ -5750,22 +5988,31 @@
       <c r="BS22" s="14">
         <v>0</v>
       </c>
+      <c r="BT22" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU22" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV22" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:71">
+    <row r="23" spans="1:74">
       <c r="A23" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" s="11">
         <v>20</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H23" s="24">
         <v>1</v>
@@ -5816,22 +6063,25 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="14">
         <v>0</v>
       </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-      <c r="AB23" s="14">
+      <c r="AB23" s="3">
         <v>0</v>
       </c>
       <c r="AC23" s="14">
         <v>0</v>
       </c>
-      <c r="AD23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="3">
+      <c r="AD23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="14">
         <v>0</v>
       </c>
       <c r="AG23" s="3">
@@ -5846,19 +6096,19 @@
       <c r="AJ23" s="3">
         <v>0</v>
       </c>
-      <c r="AK23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="3">
+      <c r="AK23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="14">
         <v>0</v>
       </c>
       <c r="AM23" s="3">
         <v>0</v>
       </c>
-      <c r="AN23" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="14">
+      <c r="AN23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="3">
         <v>0</v>
       </c>
       <c r="AP23" s="3">
@@ -5867,20 +6117,20 @@
       <c r="AQ23" s="14">
         <v>0</v>
       </c>
-      <c r="AR23" s="3">
+      <c r="AR23" s="14">
         <v>0</v>
       </c>
       <c r="AS23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AT23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="14">
         <v>0</v>
       </c>
       <c r="AU23" s="3">
         <v>0</v>
       </c>
       <c r="AV23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW23" s="3">
         <v>0</v>
@@ -5888,19 +6138,19 @@
       <c r="AX23" s="3">
         <v>0</v>
       </c>
-      <c r="AY23" s="14">
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA23" s="14">
+      <c r="AY23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="3">
         <v>0</v>
       </c>
       <c r="BB23" s="14">
         <v>0</v>
       </c>
-      <c r="BC23" s="3">
+      <c r="BC23" s="14">
         <v>0</v>
       </c>
       <c r="BD23" s="14">
@@ -5912,17 +6162,17 @@
       <c r="BF23" s="3">
         <v>0</v>
       </c>
-      <c r="BG23" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH23" s="3">
+      <c r="BG23" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="14">
         <v>0</v>
       </c>
       <c r="BI23" s="3">
         <v>0</v>
       </c>
       <c r="BJ23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK23" s="3">
         <v>0</v>
@@ -5930,13 +6180,13 @@
       <c r="BL23" s="3">
         <v>0</v>
       </c>
-      <c r="BM23" s="14">
-        <v>0</v>
-      </c>
-      <c r="BN23" s="14">
-        <v>0</v>
-      </c>
-      <c r="BO23" s="14">
+      <c r="BM23" s="3">
+        <v>1</v>
+      </c>
+      <c r="BN23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO23" s="3">
         <v>0</v>
       </c>
       <c r="BP23" s="14">
@@ -5951,25 +6201,34 @@
       <c r="BS23" s="14">
         <v>0</v>
       </c>
+      <c r="BT23" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU23" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV23" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:71">
+    <row r="24" spans="1:74">
       <c r="A24" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" s="11">
         <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H24" s="16">
         <v>5</v>
@@ -6020,22 +6279,25 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="14">
         <v>0</v>
       </c>
       <c r="AA24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="14">
+        <v>0</v>
       </c>
       <c r="AD24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="14">
         <v>0</v>
       </c>
       <c r="AG24" s="3">
@@ -6050,19 +6312,19 @@
       <c r="AJ24" s="3">
         <v>0</v>
       </c>
-      <c r="AK24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="3">
+      <c r="AK24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="14">
         <v>0</v>
       </c>
       <c r="AM24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN24" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="3">
         <v>0</v>
       </c>
       <c r="AP24" s="3">
@@ -6071,13 +6333,13 @@
       <c r="AQ24" s="14">
         <v>0</v>
       </c>
-      <c r="AR24" s="3">
+      <c r="AR24" s="14">
         <v>0</v>
       </c>
       <c r="AS24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="14">
         <v>0</v>
       </c>
       <c r="AU24" s="3">
@@ -6093,18 +6355,18 @@
         <v>0</v>
       </c>
       <c r="AY24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AZ24" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA24" s="14">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC24" s="14">
         <v>0</v>
       </c>
       <c r="BD24" s="14">
@@ -6116,10 +6378,10 @@
       <c r="BF24" s="3">
         <v>0</v>
       </c>
-      <c r="BG24" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH24" s="3">
+      <c r="BG24" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="14">
         <v>0</v>
       </c>
       <c r="BI24" s="3">
@@ -6129,22 +6391,22 @@
         <v>0</v>
       </c>
       <c r="BK24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL24" s="3">
         <v>0</v>
       </c>
       <c r="BM24" s="3">
-        <v>1</v>
-      </c>
-      <c r="BN24" s="14">
-        <v>0</v>
-      </c>
-      <c r="BO24" s="14">
-        <v>0</v>
-      </c>
-      <c r="BP24" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BN24" s="3">
+        <v>1</v>
+      </c>
+      <c r="BO24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP24" s="3">
+        <v>1</v>
       </c>
       <c r="BQ24" s="14">
         <v>0</v>
@@ -6155,25 +6417,34 @@
       <c r="BS24" s="14">
         <v>0</v>
       </c>
+      <c r="BT24" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU24" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV24" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:71">
+    <row r="25" spans="1:74">
       <c r="A25" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="11">
         <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H25" s="16">
         <v>5</v>
@@ -6224,22 +6495,25 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="Z25" s="14">
         <v>0</v>
       </c>
       <c r="AA25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="14">
+        <v>0</v>
       </c>
       <c r="AD25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="14">
         <v>0</v>
       </c>
       <c r="AG25" s="3">
@@ -6254,19 +6528,19 @@
       <c r="AJ25" s="3">
         <v>0</v>
       </c>
-      <c r="AK25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="3">
+      <c r="AK25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="14">
         <v>0</v>
       </c>
       <c r="AM25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN25" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="3">
         <v>0</v>
       </c>
       <c r="AP25" s="3">
@@ -6275,13 +6549,13 @@
       <c r="AQ25" s="14">
         <v>0</v>
       </c>
-      <c r="AR25" s="3">
+      <c r="AR25" s="14">
         <v>0</v>
       </c>
       <c r="AS25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="14">
         <v>0</v>
       </c>
       <c r="AU25" s="3">
@@ -6297,18 +6571,18 @@
         <v>0</v>
       </c>
       <c r="AY25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AZ25" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA25" s="14">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC25" s="14">
         <v>0</v>
       </c>
       <c r="BD25" s="14">
@@ -6320,10 +6594,10 @@
       <c r="BF25" s="3">
         <v>0</v>
       </c>
-      <c r="BG25" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH25" s="3">
+      <c r="BG25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="14">
         <v>0</v>
       </c>
       <c r="BI25" s="3">
@@ -6333,22 +6607,22 @@
         <v>0</v>
       </c>
       <c r="BK25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL25" s="3">
         <v>0</v>
       </c>
       <c r="BM25" s="3">
-        <v>1</v>
-      </c>
-      <c r="BN25" s="14">
-        <v>0</v>
-      </c>
-      <c r="BO25" s="14">
-        <v>0</v>
-      </c>
-      <c r="BP25" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BN25" s="3">
+        <v>1</v>
+      </c>
+      <c r="BO25" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP25" s="3">
+        <v>1</v>
       </c>
       <c r="BQ25" s="14">
         <v>0</v>
@@ -6359,25 +6633,34 @@
       <c r="BS25" s="14">
         <v>0</v>
       </c>
+      <c r="BT25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU25" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV25" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:71">
+    <row r="26" spans="1:74">
       <c r="A26" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" s="11">
         <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="H26" s="16">
         <v>1</v>
@@ -6428,22 +6711,25 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="14">
         <v>0</v>
       </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-      <c r="AB26" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="3">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="14">
         <v>0</v>
       </c>
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="14">
         <v>0</v>
       </c>
       <c r="AG26" s="3">
@@ -6458,34 +6744,34 @@
       <c r="AJ26" s="3">
         <v>0</v>
       </c>
-      <c r="AK26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="3">
+      <c r="AK26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="14">
         <v>0</v>
       </c>
       <c r="AM26" s="3">
         <v>0</v>
       </c>
-      <c r="AN26" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="14">
+      <c r="AN26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="3">
         <v>0</v>
       </c>
       <c r="AP26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="14">
         <v>0</v>
       </c>
-      <c r="AR26" s="3">
+      <c r="AR26" s="14">
         <v>0</v>
       </c>
       <c r="AS26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="14">
         <v>0</v>
       </c>
       <c r="AU26" s="3">
@@ -6503,16 +6789,16 @@
       <c r="AY26" s="3">
         <v>0</v>
       </c>
-      <c r="AZ26" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA26" s="14">
-        <v>0</v>
-      </c>
-      <c r="BB26" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC26" s="3">
+      <c r="AZ26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="14">
         <v>0</v>
       </c>
       <c r="BD26" s="14">
@@ -6524,10 +6810,10 @@
       <c r="BF26" s="3">
         <v>0</v>
       </c>
-      <c r="BG26" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH26" s="3">
+      <c r="BG26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="14">
         <v>0</v>
       </c>
       <c r="BI26" s="3">
@@ -6546,16 +6832,16 @@
         <v>0</v>
       </c>
       <c r="BN26" s="3">
-        <v>1</v>
-      </c>
-      <c r="BO26" s="14">
-        <v>0</v>
-      </c>
-      <c r="BP26" s="14">
-        <v>0</v>
-      </c>
-      <c r="BQ26" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BO26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP26" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="3">
+        <v>1</v>
       </c>
       <c r="BR26" s="14">
         <v>0</v>
@@ -6563,25 +6849,34 @@
       <c r="BS26" s="14">
         <v>0</v>
       </c>
+      <c r="BT26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU26" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV26" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:71">
+    <row r="27" spans="1:74">
       <c r="A27" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" s="11">
         <v>24</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="H27" s="16">
         <v>1</v>
@@ -6632,22 +6927,25 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="14">
         <v>0</v>
       </c>
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-      <c r="AB27" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="3">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="14">
         <v>0</v>
       </c>
       <c r="AD27" s="3">
         <v>0</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="14">
         <v>0</v>
       </c>
       <c r="AG27" s="3">
@@ -6662,34 +6960,34 @@
       <c r="AJ27" s="3">
         <v>0</v>
       </c>
-      <c r="AK27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="3">
+      <c r="AK27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="14">
         <v>0</v>
       </c>
       <c r="AM27" s="3">
         <v>0</v>
       </c>
-      <c r="AN27" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="14">
+      <c r="AN27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="3">
         <v>0</v>
       </c>
       <c r="AP27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="14">
         <v>0</v>
       </c>
-      <c r="AR27" s="3">
+      <c r="AR27" s="14">
         <v>0</v>
       </c>
       <c r="AS27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="14">
         <v>0</v>
       </c>
       <c r="AU27" s="3">
@@ -6707,16 +7005,16 @@
       <c r="AY27" s="3">
         <v>0</v>
       </c>
-      <c r="AZ27" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA27" s="14">
-        <v>0</v>
-      </c>
-      <c r="BB27" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC27" s="3">
+      <c r="AZ27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="14">
         <v>0</v>
       </c>
       <c r="BD27" s="14">
@@ -6728,10 +7026,10 @@
       <c r="BF27" s="3">
         <v>0</v>
       </c>
-      <c r="BG27" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH27" s="3">
+      <c r="BG27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="14">
         <v>0</v>
       </c>
       <c r="BI27" s="3">
@@ -6750,16 +7048,16 @@
         <v>0</v>
       </c>
       <c r="BN27" s="3">
-        <v>1</v>
-      </c>
-      <c r="BO27" s="14">
-        <v>0</v>
-      </c>
-      <c r="BP27" s="14">
-        <v>0</v>
-      </c>
-      <c r="BQ27" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BO27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="3">
+        <v>1</v>
       </c>
       <c r="BR27" s="14">
         <v>0</v>
@@ -6767,25 +7065,34 @@
       <c r="BS27" s="14">
         <v>0</v>
       </c>
+      <c r="BT27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU27" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV27" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:71">
+    <row r="28" spans="1:74">
       <c r="A28" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="11">
         <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="G28" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H28" s="16">
         <v>1</v>
@@ -6836,22 +7143,25 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-      <c r="Z28" s="3">
+      <c r="Z28" s="14">
         <v>0</v>
       </c>
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-      <c r="AB28" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="3">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="14">
         <v>0</v>
       </c>
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-      <c r="AF28" s="3">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="14">
         <v>0</v>
       </c>
       <c r="AG28" s="3">
@@ -6866,34 +7176,34 @@
       <c r="AJ28" s="3">
         <v>0</v>
       </c>
-      <c r="AK28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="3">
+      <c r="AK28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="14">
         <v>0</v>
       </c>
       <c r="AM28" s="3">
         <v>0</v>
       </c>
-      <c r="AN28" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="14">
+      <c r="AN28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="3">
         <v>0</v>
       </c>
       <c r="AP28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="14">
         <v>0</v>
       </c>
-      <c r="AR28" s="3">
+      <c r="AR28" s="14">
         <v>0</v>
       </c>
       <c r="AS28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="14">
         <v>0</v>
       </c>
       <c r="AU28" s="3">
@@ -6911,16 +7221,16 @@
       <c r="AY28" s="3">
         <v>0</v>
       </c>
-      <c r="AZ28" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA28" s="14">
-        <v>0</v>
-      </c>
-      <c r="BB28" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC28" s="3">
+      <c r="AZ28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="14">
         <v>0</v>
       </c>
       <c r="BD28" s="14">
@@ -6932,10 +7242,10 @@
       <c r="BF28" s="3">
         <v>0</v>
       </c>
-      <c r="BG28" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH28" s="3">
+      <c r="BG28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH28" s="14">
         <v>0</v>
       </c>
       <c r="BI28" s="3">
@@ -6957,39 +7267,48 @@
         <v>0</v>
       </c>
       <c r="BO28" s="3">
-        <v>1</v>
-      </c>
-      <c r="BP28" s="14">
-        <v>0</v>
-      </c>
-      <c r="BQ28" s="14">
-        <v>0</v>
-      </c>
-      <c r="BR28" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BP28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR28" s="3">
+        <v>1</v>
       </c>
       <c r="BS28" s="14">
         <v>0</v>
       </c>
+      <c r="BT28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU28" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV28" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:71">
+    <row r="29" spans="1:74">
       <c r="A29" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" s="11">
         <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="G29" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H29" s="16">
         <v>1</v>
@@ -7040,22 +7359,25 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="14">
         <v>0</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-      <c r="AB29" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="3">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="14">
         <v>0</v>
       </c>
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-      <c r="AF29" s="3">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="14">
         <v>0</v>
       </c>
       <c r="AG29" s="3">
@@ -7070,34 +7392,34 @@
       <c r="AJ29" s="3">
         <v>0</v>
       </c>
-      <c r="AK29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="3">
+      <c r="AK29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="14">
         <v>0</v>
       </c>
       <c r="AM29" s="3">
         <v>0</v>
       </c>
-      <c r="AN29" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="14">
+      <c r="AN29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="3">
         <v>0</v>
       </c>
       <c r="AP29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="14">
         <v>0</v>
       </c>
-      <c r="AR29" s="3">
+      <c r="AR29" s="14">
         <v>0</v>
       </c>
       <c r="AS29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="14">
         <v>0</v>
       </c>
       <c r="AU29" s="3">
@@ -7115,16 +7437,16 @@
       <c r="AY29" s="3">
         <v>0</v>
       </c>
-      <c r="AZ29" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA29" s="14">
-        <v>0</v>
-      </c>
-      <c r="BB29" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC29" s="3">
+      <c r="AZ29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="14">
         <v>0</v>
       </c>
       <c r="BD29" s="14">
@@ -7136,10 +7458,10 @@
       <c r="BF29" s="3">
         <v>0</v>
       </c>
-      <c r="BG29" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH29" s="3">
+      <c r="BG29" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH29" s="14">
         <v>0</v>
       </c>
       <c r="BI29" s="3">
@@ -7161,39 +7483,48 @@
         <v>0</v>
       </c>
       <c r="BO29" s="3">
-        <v>1</v>
-      </c>
-      <c r="BP29" s="14">
-        <v>0</v>
-      </c>
-      <c r="BQ29" s="14">
-        <v>0</v>
-      </c>
-      <c r="BR29" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BP29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ29" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR29" s="3">
+        <v>1</v>
       </c>
       <c r="BS29" s="14">
         <v>0</v>
       </c>
+      <c r="BT29" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU29" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV29" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:71">
+    <row r="30" spans="1:74">
       <c r="A30" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="11">
         <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="H30" s="16">
         <v>2</v>
@@ -7244,22 +7575,25 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-      <c r="Z30" s="3">
+      <c r="Z30" s="14">
         <v>0</v>
       </c>
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-      <c r="AB30" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="3">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="14">
         <v>0</v>
       </c>
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-      <c r="AF30" s="3">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="14">
         <v>0</v>
       </c>
       <c r="AG30" s="3">
@@ -7274,35 +7608,35 @@
       <c r="AJ30" s="3">
         <v>0</v>
       </c>
-      <c r="AK30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="3">
+      <c r="AK30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="14">
         <v>0</v>
       </c>
       <c r="AM30" s="3">
         <v>0</v>
       </c>
-      <c r="AN30" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="14">
+      <c r="AN30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="3">
         <v>0</v>
       </c>
       <c r="AP30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="14">
         <v>0</v>
       </c>
       <c r="AS30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU30" s="3">
         <v>0</v>
@@ -7319,16 +7653,16 @@
       <c r="AY30" s="3">
         <v>0</v>
       </c>
-      <c r="AZ30" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA30" s="14">
-        <v>0</v>
-      </c>
-      <c r="BB30" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC30" s="3">
+      <c r="AZ30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="14">
         <v>0</v>
       </c>
       <c r="BD30" s="14">
@@ -7340,10 +7674,10 @@
       <c r="BF30" s="3">
         <v>0</v>
       </c>
-      <c r="BG30" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH30" s="3">
+      <c r="BG30" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH30" s="14">
         <v>0</v>
       </c>
       <c r="BI30" s="3">
@@ -7365,39 +7699,48 @@
         <v>0</v>
       </c>
       <c r="BO30" s="3">
-        <v>1</v>
-      </c>
-      <c r="BP30" s="14">
-        <v>0</v>
-      </c>
-      <c r="BQ30" s="14">
-        <v>0</v>
-      </c>
-      <c r="BR30" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BP30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ30" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR30" s="3">
+        <v>1</v>
       </c>
       <c r="BS30" s="14">
         <v>0</v>
       </c>
+      <c r="BT30" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU30" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV30" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:71">
+    <row r="31" spans="1:74">
       <c r="A31" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31" s="11">
         <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="H31" s="16">
         <v>2</v>
@@ -7448,22 +7791,25 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-      <c r="Z31" s="3">
+      <c r="Z31" s="14">
         <v>0</v>
       </c>
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-      <c r="AB31" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="3">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="14">
         <v>0</v>
       </c>
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-      <c r="AF31" s="3">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="14">
         <v>0</v>
       </c>
       <c r="AG31" s="3">
@@ -7478,35 +7824,35 @@
       <c r="AJ31" s="3">
         <v>0</v>
       </c>
-      <c r="AK31" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="3">
+      <c r="AK31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="14">
         <v>0</v>
       </c>
       <c r="AM31" s="3">
         <v>0</v>
       </c>
-      <c r="AN31" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO31" s="14">
+      <c r="AN31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="3">
         <v>0</v>
       </c>
       <c r="AP31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="14">
         <v>0</v>
       </c>
       <c r="AS31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU31" s="3">
         <v>0</v>
@@ -7523,16 +7869,16 @@
       <c r="AY31" s="3">
         <v>0</v>
       </c>
-      <c r="AZ31" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA31" s="14">
-        <v>0</v>
-      </c>
-      <c r="BB31" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC31" s="3">
+      <c r="AZ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC31" s="14">
         <v>0</v>
       </c>
       <c r="BD31" s="14">
@@ -7544,10 +7890,10 @@
       <c r="BF31" s="3">
         <v>0</v>
       </c>
-      <c r="BG31" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH31" s="3">
+      <c r="BG31" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH31" s="14">
         <v>0</v>
       </c>
       <c r="BI31" s="3">
@@ -7569,39 +7915,48 @@
         <v>0</v>
       </c>
       <c r="BO31" s="3">
-        <v>1</v>
-      </c>
-      <c r="BP31" s="14">
-        <v>0</v>
-      </c>
-      <c r="BQ31" s="14">
-        <v>0</v>
-      </c>
-      <c r="BR31" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BP31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR31" s="3">
+        <v>1</v>
       </c>
       <c r="BS31" s="14">
         <v>0</v>
       </c>
+      <c r="BT31" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU31" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV31" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:71">
+    <row r="32" spans="1:74">
       <c r="A32" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32" s="11">
         <v>29</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="H32" s="16">
         <v>1</v>
@@ -7652,22 +8007,25 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="14">
         <v>0</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-      <c r="AB32" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="3">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="14">
         <v>0</v>
       </c>
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="14">
         <v>0</v>
       </c>
       <c r="AG32" s="3">
@@ -7682,32 +8040,32 @@
       <c r="AJ32" s="3">
         <v>0</v>
       </c>
-      <c r="AK32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="3">
+      <c r="AK32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="14">
         <v>0</v>
       </c>
       <c r="AM32" s="3">
         <v>0</v>
       </c>
-      <c r="AN32" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO32" s="14">
+      <c r="AN32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="3">
         <v>0</v>
       </c>
       <c r="AP32" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="14">
         <v>0</v>
       </c>
       <c r="AS32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="3">
         <v>0</v>
@@ -7727,16 +8085,16 @@
       <c r="AY32" s="3">
         <v>0</v>
       </c>
-      <c r="AZ32" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA32" s="14">
-        <v>0</v>
-      </c>
-      <c r="BB32" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC32" s="3">
+      <c r="AZ32" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC32" s="14">
         <v>0</v>
       </c>
       <c r="BD32" s="14">
@@ -7748,10 +8106,10 @@
       <c r="BF32" s="3">
         <v>0</v>
       </c>
-      <c r="BG32" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH32" s="3">
+      <c r="BG32" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH32" s="14">
         <v>0</v>
       </c>
       <c r="BI32" s="3">
@@ -7773,39 +8131,48 @@
         <v>0</v>
       </c>
       <c r="BO32" s="3">
-        <v>1</v>
-      </c>
-      <c r="BP32" s="14">
-        <v>0</v>
-      </c>
-      <c r="BQ32" s="14">
-        <v>0</v>
-      </c>
-      <c r="BR32" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BP32" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ32" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR32" s="3">
+        <v>1</v>
       </c>
       <c r="BS32" s="14">
         <v>0</v>
       </c>
+      <c r="BT32" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU32" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV32" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:71">
+    <row r="33" spans="1:74">
       <c r="A33" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" s="11">
         <v>30</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F33" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="H33" s="16">
         <v>1</v>
@@ -7856,22 +8223,25 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="14">
         <v>0</v>
       </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-      <c r="AB33" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="3">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="14">
         <v>0</v>
       </c>
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="14">
         <v>0</v>
       </c>
       <c r="AG33" s="3">
@@ -7886,32 +8256,32 @@
       <c r="AJ33" s="3">
         <v>0</v>
       </c>
-      <c r="AK33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="3">
+      <c r="AK33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="14">
         <v>0</v>
       </c>
       <c r="AM33" s="3">
         <v>0</v>
       </c>
-      <c r="AN33" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO33" s="14">
+      <c r="AN33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="3">
         <v>0</v>
       </c>
       <c r="AP33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="14">
         <v>0</v>
       </c>
       <c r="AS33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" s="3">
         <v>0</v>
@@ -7931,16 +8301,16 @@
       <c r="AY33" s="3">
         <v>0</v>
       </c>
-      <c r="AZ33" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA33" s="14">
-        <v>0</v>
-      </c>
-      <c r="BB33" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC33" s="3">
+      <c r="AZ33" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC33" s="14">
         <v>0</v>
       </c>
       <c r="BD33" s="14">
@@ -7952,10 +8322,10 @@
       <c r="BF33" s="3">
         <v>0</v>
       </c>
-      <c r="BG33" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH33" s="3">
+      <c r="BG33" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH33" s="14">
         <v>0</v>
       </c>
       <c r="BI33" s="3">
@@ -7977,36 +8347,45 @@
         <v>0</v>
       </c>
       <c r="BO33" s="3">
-        <v>1</v>
-      </c>
-      <c r="BP33" s="14">
-        <v>0</v>
-      </c>
-      <c r="BQ33" s="14">
-        <v>0</v>
-      </c>
-      <c r="BR33" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BP33" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ33" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR33" s="3">
+        <v>1</v>
       </c>
       <c r="BS33" s="14">
         <v>0</v>
       </c>
+      <c r="BT33" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU33" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV33" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:71">
+    <row r="34" spans="1:74">
       <c r="C34" s="11">
         <v>31</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="G34" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H34" s="16">
         <v>3</v>
@@ -8057,22 +8436,25 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-      <c r="Z34" s="3">
+      <c r="Z34" s="14">
         <v>0</v>
       </c>
       <c r="AA34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="14">
         <v>0</v>
       </c>
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-      <c r="AF34" s="3">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="14">
         <v>0</v>
       </c>
       <c r="AG34" s="3">
@@ -8087,32 +8469,32 @@
       <c r="AJ34" s="3">
         <v>0</v>
       </c>
-      <c r="AK34" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="3">
+      <c r="AK34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="14">
         <v>0</v>
       </c>
       <c r="AM34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN34" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="3">
         <v>0</v>
       </c>
       <c r="AP34" s="3">
         <v>1</v>
       </c>
-      <c r="AQ34" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR34" s="3">
+      <c r="AQ34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="14">
         <v>0</v>
       </c>
       <c r="AS34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" s="3">
         <v>0</v>
@@ -8132,17 +8514,17 @@
       <c r="AY34" s="3">
         <v>0</v>
       </c>
-      <c r="AZ34" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA34" s="14">
-        <v>0</v>
-      </c>
-      <c r="BB34" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC34" s="3">
-        <v>1</v>
+      <c r="AZ34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="14">
+        <v>0</v>
       </c>
       <c r="BD34" s="14">
         <v>0</v>
@@ -8151,12 +8533,12 @@
         <v>0</v>
       </c>
       <c r="BF34" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG34" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH34" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG34" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH34" s="14">
         <v>0</v>
       </c>
       <c r="BI34" s="3">
@@ -8166,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="BK34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL34" s="3">
         <v>0</v>
@@ -8175,39 +8557,48 @@
         <v>0</v>
       </c>
       <c r="BN34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO34" s="3">
         <v>0</v>
       </c>
-      <c r="BP34" s="14">
-        <v>0</v>
-      </c>
-      <c r="BQ34" s="14">
-        <v>0</v>
-      </c>
-      <c r="BR34" s="14">
-        <v>0</v>
-      </c>
-      <c r="BS34" s="3">
+      <c r="BP34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS34" s="14">
+        <v>0</v>
+      </c>
+      <c r="BT34" s="14">
+        <v>0</v>
+      </c>
+      <c r="BU34" s="14">
+        <v>0</v>
+      </c>
+      <c r="BV34" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:71">
+    <row r="35" spans="1:74">
       <c r="C35" s="11">
         <v>32</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H35" s="16">
         <v>2</v>
@@ -8258,22 +8649,25 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="14">
         <v>0</v>
       </c>
       <c r="AA35" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="14">
+        <v>0</v>
       </c>
       <c r="AD35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="14">
         <v>0</v>
       </c>
       <c r="AG35" s="3">
@@ -8288,28 +8682,28 @@
       <c r="AJ35" s="3">
         <v>0</v>
       </c>
-      <c r="AK35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="3">
+      <c r="AK35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="14">
         <v>0</v>
       </c>
       <c r="AM35" s="3">
         <v>0</v>
       </c>
-      <c r="AN35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO35" s="14">
+      <c r="AN35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="3">
         <v>0</v>
       </c>
       <c r="AP35" s="3">
         <v>0</v>
       </c>
-      <c r="AQ35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR35" s="3">
+      <c r="AQ35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="14">
         <v>0</v>
       </c>
       <c r="AS35" s="3">
@@ -8333,16 +8727,16 @@
       <c r="AY35" s="3">
         <v>0</v>
       </c>
-      <c r="AZ35" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA35" s="14">
-        <v>0</v>
-      </c>
-      <c r="BB35" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC35" s="3">
+      <c r="AZ35" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC35" s="14">
         <v>0</v>
       </c>
       <c r="BD35" s="14">
@@ -8354,10 +8748,10 @@
       <c r="BF35" s="3">
         <v>0</v>
       </c>
-      <c r="BG35" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH35" s="3">
+      <c r="BG35" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH35" s="14">
         <v>0</v>
       </c>
       <c r="BI35" s="3">
@@ -8367,22 +8761,22 @@
         <v>0</v>
       </c>
       <c r="BK35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL35" s="3">
         <v>0</v>
       </c>
       <c r="BM35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO35" s="3">
         <v>0</v>
       </c>
-      <c r="BP35" s="14">
-        <v>0</v>
+      <c r="BP35" s="3">
+        <v>1</v>
       </c>
       <c r="BQ35" s="3">
         <v>0</v>
@@ -8390,25 +8784,34 @@
       <c r="BR35" s="3">
         <v>0</v>
       </c>
-      <c r="BS35" s="3">
+      <c r="BS35" s="14">
+        <v>0</v>
+      </c>
+      <c r="BT35" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU35" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV35" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:71">
+    <row r="36" spans="1:74">
       <c r="C36" s="11">
         <v>33</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="G36" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H36" s="23">
         <v>6</v>
@@ -8459,22 +8862,25 @@
       <c r="Y36" s="3">
         <v>1</v>
       </c>
-      <c r="Z36" s="3">
+      <c r="Z36" s="14">
         <v>0</v>
       </c>
       <c r="AA36" s="3">
         <v>0</v>
       </c>
-      <c r="AB36" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="3">
+      <c r="AB36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="14">
         <v>0</v>
       </c>
       <c r="AD36" s="3">
         <v>0</v>
       </c>
-      <c r="AF36" s="3">
+      <c r="AE36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="14">
         <v>0</v>
       </c>
       <c r="AG36" s="3">
@@ -8489,28 +8895,28 @@
       <c r="AJ36" s="3">
         <v>0</v>
       </c>
-      <c r="AK36" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL36" s="3">
-        <v>1</v>
+      <c r="AK36" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="14">
+        <v>0</v>
       </c>
       <c r="AM36" s="3">
         <v>0</v>
       </c>
-      <c r="AN36" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO36" s="14">
-        <v>0</v>
+      <c r="AN36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO36" s="3">
+        <v>1</v>
       </c>
       <c r="AP36" s="3">
         <v>0</v>
       </c>
-      <c r="AQ36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR36" s="3">
+      <c r="AQ36" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="14">
         <v>0</v>
       </c>
       <c r="AS36" s="3">
@@ -8535,30 +8941,30 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC36" s="3">
         <v>1</v>
       </c>
-      <c r="BD36" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE36" s="14">
-        <v>0</v>
+      <c r="BD36" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE36" s="3">
+        <v>1</v>
       </c>
       <c r="BF36" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG36" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH36" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG36" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH36" s="14">
         <v>0</v>
       </c>
       <c r="BI36" s="3">
@@ -8568,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="BK36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL36" s="3">
         <v>0</v>
@@ -8577,44 +8983,53 @@
         <v>0</v>
       </c>
       <c r="BN36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO36" s="3">
         <v>0</v>
       </c>
-      <c r="BP36" s="14">
+      <c r="BP36" s="3">
         <v>0</v>
       </c>
       <c r="BQ36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR36" s="3">
-        <v>1</v>
-      </c>
-      <c r="BS36" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS36" s="14">
+        <v>0</v>
+      </c>
+      <c r="BT36" s="3">
+        <v>1</v>
+      </c>
+      <c r="BU36" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV36" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:71">
+    <row r="37" spans="1:74">
       <c r="C37" s="11">
         <v>34</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="G37" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H37" s="26">
+        <v>124</v>
+      </c>
+      <c r="H37" s="25">
         <v>5</v>
       </c>
-      <c r="I37" s="26"/>
+      <c r="I37" s="25"/>
       <c r="J37" s="3">
         <v>1</v>
       </c>
@@ -8660,22 +9075,25 @@
       <c r="Y37" s="3">
         <v>1</v>
       </c>
-      <c r="Z37" s="3">
+      <c r="Z37" s="14">
         <v>0</v>
       </c>
       <c r="AA37" s="3">
         <v>0</v>
       </c>
-      <c r="AB37" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="3">
+      <c r="AB37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="14">
         <v>0</v>
       </c>
       <c r="AD37" s="3">
         <v>0</v>
       </c>
-      <c r="AF37" s="3">
+      <c r="AE37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="14">
         <v>0</v>
       </c>
       <c r="AG37" s="3">
@@ -8690,28 +9108,28 @@
       <c r="AJ37" s="3">
         <v>0</v>
       </c>
-      <c r="AK37" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL37" s="3">
-        <v>1</v>
+      <c r="AK37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="14">
+        <v>0</v>
       </c>
       <c r="AM37" s="3">
         <v>0</v>
       </c>
-      <c r="AN37" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO37" s="14">
-        <v>0</v>
+      <c r="AN37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="3">
+        <v>1</v>
       </c>
       <c r="AP37" s="3">
         <v>0</v>
       </c>
-      <c r="AQ37" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR37" s="3">
+      <c r="AQ37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="14">
         <v>0</v>
       </c>
       <c r="AS37" s="3">
@@ -8736,30 +9154,30 @@
         <v>0</v>
       </c>
       <c r="AZ37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC37" s="3">
         <v>1</v>
       </c>
-      <c r="BD37" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE37" s="14">
-        <v>0</v>
+      <c r="BD37" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE37" s="3">
+        <v>1</v>
       </c>
       <c r="BF37" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG37" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH37" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG37" s="14">
+        <v>0</v>
+      </c>
+      <c r="BH37" s="14">
         <v>0</v>
       </c>
       <c r="BI37" s="3">
@@ -8769,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="BK37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL37" s="3">
         <v>0</v>
@@ -8778,44 +9196,53 @@
         <v>0</v>
       </c>
       <c r="BN37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO37" s="3">
         <v>0</v>
       </c>
-      <c r="BP37" s="14">
+      <c r="BP37" s="3">
         <v>0</v>
       </c>
       <c r="BQ37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR37" s="3">
-        <v>1</v>
-      </c>
-      <c r="BS37" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS37" s="14">
+        <v>0</v>
+      </c>
+      <c r="BT37" s="3">
+        <v>1</v>
+      </c>
+      <c r="BU37" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV37" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:71">
+    <row r="38" spans="1:74">
       <c r="C38" s="11">
         <v>35</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" s="26">
+      <c r="H38" s="25">
         <v>8</v>
       </c>
-      <c r="I38" s="26"/>
+      <c r="I38" s="25"/>
       <c r="J38" s="3">
         <v>1</v>
       </c>
@@ -8861,29 +9288,29 @@
       <c r="Y38" s="3">
         <v>1</v>
       </c>
-      <c r="Z38" s="3">
+      <c r="Z38" s="14">
         <v>0</v>
       </c>
       <c r="AA38" s="3">
         <v>0</v>
       </c>
       <c r="AB38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="3">
         <v>1</v>
       </c>
       <c r="AF38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="3">
         <v>1</v>
@@ -8892,31 +9319,31 @@
         <v>1</v>
       </c>
       <c r="AJ38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="14">
         <v>0</v>
       </c>
       <c r="AM38" s="3">
         <v>0</v>
       </c>
-      <c r="AN38" s="14">
+      <c r="AN38" s="3">
         <v>0</v>
       </c>
       <c r="AO38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP38" s="3">
         <v>0</v>
       </c>
-      <c r="AQ38" s="3">
+      <c r="AQ38" s="14">
         <v>0</v>
       </c>
       <c r="AR38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS38" s="3">
         <v>0</v>
@@ -8952,18 +9379,18 @@
         <v>0</v>
       </c>
       <c r="BD38" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE38" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE38" s="3">
         <v>0</v>
       </c>
       <c r="BF38" s="3">
         <v>0</v>
       </c>
       <c r="BG38" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH38" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH38" s="14">
         <v>0</v>
       </c>
       <c r="BI38" s="3">
@@ -8973,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="BK38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL38" s="3">
         <v>0</v>
@@ -8982,13 +9409,13 @@
         <v>0</v>
       </c>
       <c r="BN38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO38" s="3">
         <v>0</v>
       </c>
       <c r="BP38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ38" s="3">
         <v>0</v>
@@ -8997,29 +9424,38 @@
         <v>0</v>
       </c>
       <c r="BS38" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT38" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU38" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV38" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:71">
+    <row r="39" spans="1:74">
       <c r="C39" s="11">
         <v>36</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H39" s="26">
+        <v>142</v>
+      </c>
+      <c r="H39" s="25">
         <v>7</v>
       </c>
-      <c r="I39" s="26"/>
+      <c r="I39" s="25"/>
       <c r="J39" s="3">
         <v>1</v>
       </c>
@@ -9065,62 +9501,62 @@
       <c r="Y39" s="3">
         <v>1</v>
       </c>
-      <c r="Z39" s="3">
+      <c r="Z39" s="14">
         <v>0</v>
       </c>
       <c r="AA39" s="3">
         <v>0</v>
       </c>
       <c r="AB39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="3">
         <v>1</v>
       </c>
       <c r="AF39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="3">
         <v>1</v>
       </c>
       <c r="AI39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ39" s="3">
         <v>0</v>
       </c>
-      <c r="AK39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="3">
+      <c r="AK39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="14">
         <v>0</v>
       </c>
       <c r="AM39" s="3">
         <v>0</v>
       </c>
-      <c r="AN39" s="14">
+      <c r="AN39" s="3">
         <v>0</v>
       </c>
       <c r="AO39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="3">
         <v>0</v>
       </c>
-      <c r="AQ39" s="3">
+      <c r="AQ39" s="14">
         <v>0</v>
       </c>
       <c r="AR39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS39" s="3">
         <v>0</v>
@@ -9156,18 +9592,18 @@
         <v>0</v>
       </c>
       <c r="BD39" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE39" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE39" s="3">
         <v>0</v>
       </c>
       <c r="BF39" s="3">
         <v>0</v>
       </c>
       <c r="BG39" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH39" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH39" s="14">
         <v>0</v>
       </c>
       <c r="BI39" s="3">
@@ -9177,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="BK39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL39" s="3">
         <v>0</v>
@@ -9186,13 +9622,13 @@
         <v>0</v>
       </c>
       <c r="BN39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO39" s="3">
         <v>0</v>
       </c>
       <c r="BP39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ39" s="3">
         <v>0</v>
@@ -9201,29 +9637,38 @@
         <v>0</v>
       </c>
       <c r="BS39" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT39" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU39" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV39" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:71">
+    <row r="40" spans="1:74">
       <c r="C40" s="11">
         <v>37</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H40" s="26">
+      <c r="H40" s="25">
         <v>7</v>
       </c>
-      <c r="I40" s="26"/>
+      <c r="I40" s="25"/>
       <c r="J40" s="3">
         <v>1</v>
       </c>
@@ -9269,62 +9714,62 @@
       <c r="Y40" s="3">
         <v>1</v>
       </c>
-      <c r="Z40" s="3">
+      <c r="Z40" s="14">
         <v>0</v>
       </c>
       <c r="AA40" s="3">
         <v>0</v>
       </c>
       <c r="AB40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="3">
         <v>1</v>
       </c>
       <c r="AF40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG40" s="3">
         <v>0</v>
       </c>
       <c r="AH40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI40" s="3">
         <v>1</v>
       </c>
       <c r="AJ40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="14">
         <v>0</v>
       </c>
       <c r="AM40" s="3">
         <v>0</v>
       </c>
-      <c r="AN40" s="14">
+      <c r="AN40" s="3">
         <v>0</v>
       </c>
       <c r="AO40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="3">
         <v>0</v>
       </c>
-      <c r="AQ40" s="3">
+      <c r="AQ40" s="14">
         <v>0</v>
       </c>
       <c r="AR40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS40" s="3">
         <v>0</v>
@@ -9360,18 +9805,18 @@
         <v>0</v>
       </c>
       <c r="BD40" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE40" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE40" s="3">
         <v>0</v>
       </c>
       <c r="BF40" s="3">
         <v>0</v>
       </c>
       <c r="BG40" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH40" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH40" s="14">
         <v>0</v>
       </c>
       <c r="BI40" s="3">
@@ -9381,7 +9826,7 @@
         <v>0</v>
       </c>
       <c r="BK40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL40" s="3">
         <v>0</v>
@@ -9390,13 +9835,13 @@
         <v>0</v>
       </c>
       <c r="BN40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO40" s="3">
         <v>0</v>
       </c>
       <c r="BP40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ40" s="3">
         <v>0</v>
@@ -9405,29 +9850,38 @@
         <v>0</v>
       </c>
       <c r="BS40" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT40" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU40" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV40" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:71">
+    <row r="41" spans="1:74">
       <c r="C41" s="11">
         <v>38</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H41" s="26">
+        <v>142</v>
+      </c>
+      <c r="H41" s="25">
         <v>6</v>
       </c>
-      <c r="I41" s="26"/>
+      <c r="I41" s="25"/>
       <c r="J41" s="3">
         <v>1</v>
       </c>
@@ -9473,62 +9927,62 @@
       <c r="Y41" s="3">
         <v>1</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="14">
         <v>0</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
       <c r="AB41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="3">
         <v>1</v>
       </c>
       <c r="AF41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG41" s="3">
         <v>0</v>
       </c>
       <c r="AH41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ41" s="3">
         <v>0</v>
       </c>
-      <c r="AK41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="3">
+      <c r="AK41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="14">
         <v>0</v>
       </c>
       <c r="AM41" s="3">
         <v>0</v>
       </c>
-      <c r="AN41" s="14">
+      <c r="AN41" s="3">
         <v>0</v>
       </c>
       <c r="AO41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP41" s="3">
         <v>0</v>
       </c>
-      <c r="AQ41" s="3">
+      <c r="AQ41" s="14">
         <v>0</v>
       </c>
       <c r="AR41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS41" s="3">
         <v>0</v>
@@ -9564,18 +10018,18 @@
         <v>0</v>
       </c>
       <c r="BD41" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE41" s="14">
+        <v>0</v>
+      </c>
+      <c r="BE41" s="3">
         <v>0</v>
       </c>
       <c r="BF41" s="3">
         <v>0</v>
       </c>
       <c r="BG41" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH41" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH41" s="14">
         <v>0</v>
       </c>
       <c r="BI41" s="3">
@@ -9585,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="BK41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL41" s="3">
         <v>0</v>
@@ -9594,13 +10048,13 @@
         <v>0</v>
       </c>
       <c r="BN41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO41" s="3">
         <v>0</v>
       </c>
       <c r="BP41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ41" s="3">
         <v>0</v>
@@ -9609,29 +10063,38 @@
         <v>0</v>
       </c>
       <c r="BS41" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT41" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU41" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV41" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:71">
+    <row r="42" spans="1:74">
       <c r="C42" s="11">
         <v>39</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H42" s="27">
+      <c r="H42" s="26">
         <v>9</v>
       </c>
-      <c r="I42" s="27"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="3">
         <v>1</v>
       </c>
@@ -9677,14 +10140,14 @@
       <c r="Y42" s="3">
         <v>1</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="14">
         <v>0</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
       </c>
       <c r="AB42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="3">
         <v>1</v>
@@ -9696,43 +10159,43 @@
         <v>1</v>
       </c>
       <c r="AF42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG42" s="3">
         <v>0</v>
       </c>
       <c r="AH42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="3">
         <v>1</v>
       </c>
       <c r="AJ42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="14">
         <v>0</v>
       </c>
       <c r="AM42" s="3">
         <v>0</v>
       </c>
       <c r="AN42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="3">
         <v>0</v>
       </c>
       <c r="AQ42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS42" s="3">
         <v>0</v>
@@ -9771,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="BE42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF42" s="3">
         <v>0</v>
@@ -9780,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="BH42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI42" s="3">
         <v>0</v>
@@ -9789,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="BK42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL42" s="3">
         <v>0</v>
@@ -9798,13 +10261,13 @@
         <v>0</v>
       </c>
       <c r="BN42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO42" s="3">
         <v>0</v>
       </c>
       <c r="BP42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ42" s="3">
         <v>0</v>
@@ -9813,29 +10276,38 @@
         <v>0</v>
       </c>
       <c r="BS42" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT42" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU42" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV42" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:71">
+    <row r="43" spans="1:74">
       <c r="C43" s="11">
         <v>40</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H43" s="28">
+        <v>142</v>
+      </c>
+      <c r="H43" s="27">
         <v>7</v>
       </c>
-      <c r="I43" s="28"/>
+      <c r="I43" s="27"/>
       <c r="J43" s="3">
         <v>1</v>
       </c>
@@ -9881,14 +10353,14 @@
       <c r="Y43" s="3">
         <v>1</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="14">
         <v>0</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
       </c>
       <c r="AB43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="3">
         <v>1</v>
@@ -9900,24 +10372,24 @@
         <v>1</v>
       </c>
       <c r="AF43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG43" s="3">
         <v>0</v>
       </c>
       <c r="AH43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ43" s="3">
         <v>0</v>
       </c>
-      <c r="AK43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="3">
+      <c r="AK43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="14">
         <v>0</v>
       </c>
       <c r="AM43" s="3">
@@ -9927,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="3">
         <v>0</v>
@@ -9936,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS43" s="3">
         <v>0</v>
@@ -9975,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="BE43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF43" s="3">
         <v>0</v>
@@ -9984,7 +10456,7 @@
         <v>0</v>
       </c>
       <c r="BH43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI43" s="3">
         <v>0</v>
@@ -9993,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="BK43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL43" s="3">
         <v>0</v>
@@ -10002,13 +10474,13 @@
         <v>0</v>
       </c>
       <c r="BN43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO43" s="3">
         <v>0</v>
       </c>
       <c r="BP43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ43" s="3">
         <v>0</v>
@@ -10017,29 +10489,38 @@
         <v>0</v>
       </c>
       <c r="BS43" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT43" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU43" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV43" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:71">
+    <row r="44" spans="1:74">
       <c r="C44" s="11">
         <v>41</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H44" s="28">
+        <v>142</v>
+      </c>
+      <c r="H44" s="27">
         <v>8</v>
       </c>
-      <c r="I44" s="28"/>
+      <c r="I44" s="27"/>
       <c r="J44" s="3">
         <v>1</v>
       </c>
@@ -10085,14 +10566,14 @@
       <c r="Y44" s="3">
         <v>1</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="14">
         <v>0</v>
       </c>
       <c r="AA44" s="3">
         <v>0</v>
       </c>
       <c r="AB44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="3">
         <v>1</v>
@@ -10104,43 +10585,43 @@
         <v>1</v>
       </c>
       <c r="AF44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44" s="3">
         <v>0</v>
       </c>
       <c r="AH44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ44" s="3">
         <v>0</v>
       </c>
-      <c r="AK44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL44" s="3">
+      <c r="AK44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="14">
         <v>0</v>
       </c>
       <c r="AM44" s="3">
         <v>0</v>
       </c>
       <c r="AN44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP44" s="3">
         <v>0</v>
       </c>
       <c r="AQ44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS44" s="3">
         <v>0</v>
@@ -10179,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="BE44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF44" s="3">
         <v>0</v>
@@ -10188,7 +10669,7 @@
         <v>0</v>
       </c>
       <c r="BH44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI44" s="3">
         <v>0</v>
@@ -10197,7 +10678,7 @@
         <v>0</v>
       </c>
       <c r="BK44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL44" s="3">
         <v>0</v>
@@ -10206,13 +10687,13 @@
         <v>0</v>
       </c>
       <c r="BN44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO44" s="3">
         <v>0</v>
       </c>
       <c r="BP44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ44" s="3">
         <v>0</v>
@@ -10221,29 +10702,38 @@
         <v>0</v>
       </c>
       <c r="BS44" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT44" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU44" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV44" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:71">
+    <row r="45" spans="1:74">
       <c r="C45" s="11">
         <v>42</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H45" s="29">
+      <c r="H45" s="28">
         <v>8</v>
       </c>
-      <c r="I45" s="29"/>
+      <c r="I45" s="28"/>
       <c r="J45" s="3">
         <v>1</v>
       </c>
@@ -10289,14 +10779,14 @@
       <c r="Y45" s="3">
         <v>1</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="14">
         <v>0</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
       <c r="AB45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="3">
         <v>1</v>
@@ -10308,24 +10798,24 @@
         <v>1</v>
       </c>
       <c r="AF45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG45" s="3">
         <v>0</v>
       </c>
       <c r="AH45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="3">
         <v>1</v>
       </c>
       <c r="AJ45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="14">
         <v>0</v>
       </c>
       <c r="AM45" s="3">
@@ -10335,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="AO45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP45" s="3">
         <v>0</v>
@@ -10344,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="AR45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS45" s="3">
         <v>0</v>
@@ -10383,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="BE45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF45" s="3">
         <v>0</v>
@@ -10392,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="BH45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI45" s="3">
         <v>0</v>
@@ -10401,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="BK45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL45" s="3">
         <v>0</v>
@@ -10410,13 +10900,13 @@
         <v>0</v>
       </c>
       <c r="BN45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO45" s="3">
         <v>0</v>
       </c>
       <c r="BP45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ45" s="3">
         <v>0</v>
@@ -10425,29 +10915,38 @@
         <v>0</v>
       </c>
       <c r="BS45" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT45" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU45" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV45" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:71">
+    <row r="46" spans="1:74">
       <c r="C46" s="11">
         <v>43</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="G46" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H46" s="30">
+        <v>110</v>
+      </c>
+      <c r="H46" s="29">
         <v>3</v>
       </c>
-      <c r="I46" s="30"/>
+      <c r="I46" s="29"/>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -10493,14 +10992,14 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="14">
         <v>0</v>
       </c>
       <c r="AA46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46" s="3">
         <v>0</v>
@@ -10526,14 +11025,14 @@
       <c r="AJ46" s="3">
         <v>0</v>
       </c>
-      <c r="AK46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL46" s="3">
+      <c r="AK46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="14">
         <v>0</v>
       </c>
       <c r="AM46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN46" s="3">
         <v>0</v>
@@ -10551,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT46" s="3">
         <v>0</v>
@@ -10581,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="BC46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD46" s="3">
         <v>0</v>
@@ -10590,7 +11089,7 @@
         <v>0</v>
       </c>
       <c r="BF46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG46" s="3">
         <v>0</v>
@@ -10605,7 +11104,7 @@
         <v>0</v>
       </c>
       <c r="BK46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL46" s="3">
         <v>0</v>
@@ -10614,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="BN46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO46" s="3">
         <v>0</v>
@@ -10629,217 +11128,444 @@
         <v>0</v>
       </c>
       <c r="BS46" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT46" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU46" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV46" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:71">
+    <row r="47" spans="1:74">
       <c r="C47" s="11">
         <v>44</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="G47" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" s="29">
+        <v>3</v>
+      </c>
+      <c r="I47" s="29"/>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>1</v>
+      </c>
+      <c r="R47" s="3">
+        <v>1</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF47" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN47" s="3">
+        <v>1</v>
+      </c>
+      <c r="BO47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU47" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:74">
+      <c r="C48" s="11">
+        <v>45</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H47" s="30">
-        <v>3</v>
-      </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3">
-        <v>1</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>1</v>
-      </c>
-      <c r="R47" s="3">
-        <v>1</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
-      <c r="W47" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM47" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP47" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ47" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA47" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB47" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC47" s="3">
-        <v>1</v>
-      </c>
-      <c r="BD47" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE47" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF47" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG47" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH47" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI47" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ47" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK47" s="3">
-        <v>1</v>
-      </c>
-      <c r="BL47" s="3">
-        <v>0</v>
-      </c>
-      <c r="BM47" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN47" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO47" s="3">
-        <v>0</v>
-      </c>
-      <c r="BP47" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ47" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR47" s="3">
-        <v>0</v>
-      </c>
-      <c r="BS47" s="3">
-        <v>1</v>
+      <c r="G48" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1</v>
+      </c>
+      <c r="M48" s="3">
+        <v>1</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>1</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>1</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ48" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE48" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF48" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG48" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH48" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI48" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ48" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK48" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL48" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM48" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN48" s="3">
+        <v>1</v>
+      </c>
+      <c r="BO48" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP48" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ48" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR48" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS48" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT48" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU48" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV48" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="Y2:AR2"/>
-    <mergeCell ref="BC2:BS2"/>
+    <mergeCell ref="Y2:AU2"/>
+    <mergeCell ref="BF2:BV2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
